--- a/KernelRidge/results/metrics_results_per_fold.xlsx
+++ b/KernelRidge/results/metrics_results_per_fold.xlsx
@@ -465,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>13.19354594706822</v>
+        <v>13.16781871411307</v>
       </c>
       <c r="C2" t="n">
-        <v>8.774747864179462</v>
+        <v>8.947201943880625</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4017048529802445</v>
+        <v>0.4014278989729489</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7084748068977078</v>
+        <v>0.6950324538592456</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>12.49533620747424</v>
+        <v>12.57134574795476</v>
       </c>
       <c r="C3" t="n">
-        <v>8.962841510197261</v>
+        <v>9.120173645588043</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4246339395254275</v>
+        <v>0.4188100540065374</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7025051924076602</v>
+        <v>0.6906490779460128</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>14.9090286407449</v>
+        <v>14.92255134412465</v>
       </c>
       <c r="C4" t="n">
-        <v>9.225034290387816</v>
+        <v>9.406959014704043</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2728552570529263</v>
+        <v>0.2713027917542721</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7148985107180493</v>
+        <v>0.7018257783731682</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>14.28616675642324</v>
+        <v>14.28261686219792</v>
       </c>
       <c r="C5" t="n">
-        <v>9.54599147599555</v>
+        <v>9.80371447170312</v>
       </c>
       <c r="D5" t="n">
-        <v>0.268835330793793</v>
+        <v>0.2631794229696744</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6551099311454207</v>
+        <v>0.6357765275292653</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>15.26373042281169</v>
+        <v>15.33529644963509</v>
       </c>
       <c r="C6" t="n">
-        <v>10.98627909009847</v>
+        <v>11.15947672859018</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1334885890157875</v>
+        <v>0.1218245658803859</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5289574067219228</v>
+        <v>0.5107124814226957</v>
       </c>
     </row>
     <row r="7">
@@ -550,16 +550,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>13.68452041366449</v>
+        <v>13.63041689972834</v>
       </c>
       <c r="C7" t="n">
-        <v>7.992446122314997</v>
+        <v>8.253068508067757</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3253632408799544</v>
+        <v>0.3229795881977479</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7388434913871961</v>
+        <v>0.724448832351869</v>
       </c>
     </row>
     <row r="8">
@@ -567,16 +567,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>13.11568665795349</v>
+        <v>13.1318902289585</v>
       </c>
       <c r="C8" t="n">
-        <v>9.085164470148481</v>
+        <v>9.278527576914067</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3302485764024964</v>
+        <v>0.3259059443352889</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6889289494415158</v>
+        <v>0.6737403172063788</v>
       </c>
     </row>
     <row r="9">
@@ -584,16 +584,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>12.95455299139289</v>
+        <v>12.91929460820788</v>
       </c>
       <c r="C9" t="n">
-        <v>8.213050583688569</v>
+        <v>8.312661423616653</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4194317812469818</v>
+        <v>0.4226382346858246</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7680320688985964</v>
+        <v>0.760174948769772</v>
       </c>
     </row>
     <row r="10">
@@ -601,16 +601,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>12.70024212751497</v>
+        <v>12.66598671483878</v>
       </c>
       <c r="C10" t="n">
-        <v>9.04314912868378</v>
+        <v>9.206257847319245</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3831898322613257</v>
+        <v>0.380184171910313</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6539481556199976</v>
+        <v>0.6393453252783564</v>
       </c>
     </row>
     <row r="11">
@@ -618,16 +618,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>12.95210346756389</v>
+        <v>12.94626709256857</v>
       </c>
       <c r="C11" t="n">
-        <v>8.333292393996844</v>
+        <v>8.46040779499762</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4048571097732836</v>
+        <v>0.4063257850468667</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7489930118987247</v>
+        <v>0.7410350135519378</v>
       </c>
     </row>
     <row r="12">
@@ -635,16 +635,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>12.54632719969319</v>
+        <v>12.60700587191961</v>
       </c>
       <c r="C12" t="n">
-        <v>9.063343389561194</v>
+        <v>9.294653838867783</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3785015815815393</v>
+        <v>0.3725877999033038</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6996942627039692</v>
+        <v>0.6840147008300079</v>
       </c>
     </row>
     <row r="13">
@@ -652,16 +652,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>15.49157749979519</v>
+        <v>15.61416764944687</v>
       </c>
       <c r="C13" t="n">
-        <v>10.64117991842015</v>
+        <v>10.99906623733401</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1510446444737826</v>
+        <v>0.1340608872494653</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5925528276283606</v>
+        <v>0.5619642822520653</v>
       </c>
     </row>
     <row r="14">
@@ -669,16 +669,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>13.51109866090098</v>
+        <v>13.45213511265261</v>
       </c>
       <c r="C14" t="n">
-        <v>8.881141055383956</v>
+        <v>9.033342009760798</v>
       </c>
       <c r="D14" t="n">
-        <v>0.3959100586478558</v>
+        <v>0.3960520681123533</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6971056449657591</v>
+        <v>0.6886446130439605</v>
       </c>
     </row>
     <row r="15">
@@ -686,16 +686,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>14.34909225088989</v>
+        <v>14.42521648190376</v>
       </c>
       <c r="C15" t="n">
-        <v>9.534158886444546</v>
+        <v>9.752258864743419</v>
       </c>
       <c r="D15" t="n">
-        <v>0.2780771668954064</v>
+        <v>0.2713392830282514</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6429812931410277</v>
+        <v>0.6266370107186614</v>
       </c>
     </row>
     <row r="16">
@@ -703,16 +703,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>13.04690095788832</v>
+        <v>13.04075071009046</v>
       </c>
       <c r="C16" t="n">
-        <v>8.457509105105476</v>
+        <v>8.606445276216723</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4257280327730864</v>
+        <v>0.4253439269568311</v>
       </c>
       <c r="E16" t="n">
-        <v>0.7506312874106218</v>
+        <v>0.7390041405774137</v>
       </c>
     </row>
     <row r="17">
@@ -720,16 +720,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>13.288015908474</v>
+        <v>13.21153402043487</v>
       </c>
       <c r="C17" t="n">
-        <v>8.240022120651151</v>
+        <v>8.360266628866217</v>
       </c>
       <c r="D17" t="n">
-        <v>0.3540035790847401</v>
+        <v>0.3624240175247475</v>
       </c>
       <c r="E17" t="n">
-        <v>0.7204255289137942</v>
+        <v>0.7132258367004328</v>
       </c>
     </row>
     <row r="18">
@@ -737,16 +737,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>12.97071877197266</v>
+        <v>12.97318134349604</v>
       </c>
       <c r="C18" t="n">
-        <v>8.823522897955836</v>
+        <v>8.946452103192041</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3745885370100973</v>
+        <v>0.3726880884033617</v>
       </c>
       <c r="E18" t="n">
-        <v>0.7034673050661471</v>
+        <v>0.6950472186078983</v>
       </c>
     </row>
     <row r="19">
@@ -754,16 +754,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>13.3357168088506</v>
+        <v>13.32689755952402</v>
       </c>
       <c r="C19" t="n">
-        <v>8.962094577057382</v>
+        <v>9.087016004581239</v>
       </c>
       <c r="D19" t="n">
-        <v>0.377975671451301</v>
+        <v>0.3779027299335315</v>
       </c>
       <c r="E19" t="n">
-        <v>0.7167625397685045</v>
+        <v>0.7074410485889213</v>
       </c>
     </row>
     <row r="20">
@@ -771,16 +771,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>14.16399740352338</v>
+        <v>14.17641029453502</v>
       </c>
       <c r="C20" t="n">
-        <v>8.767762545262917</v>
+        <v>8.985741719537369</v>
       </c>
       <c r="D20" t="n">
-        <v>0.2866701749736448</v>
+        <v>0.2797626912544081</v>
       </c>
       <c r="E20" t="n">
-        <v>0.7021354786637329</v>
+        <v>0.6838264747372464</v>
       </c>
     </row>
     <row r="21">
@@ -788,16 +788,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>13.03685343114664</v>
+        <v>13.14322223732939</v>
       </c>
       <c r="C21" t="n">
-        <v>8.826189943411213</v>
+        <v>9.073854275359075</v>
       </c>
       <c r="D21" t="n">
-        <v>0.2787744651377556</v>
+        <v>0.266918715895103</v>
       </c>
       <c r="E21" t="n">
-        <v>0.6703296212689698</v>
+        <v>0.6531128157168343</v>
       </c>
     </row>
     <row r="22">
@@ -805,16 +805,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>14.03046462903914</v>
+        <v>13.99804911318301</v>
       </c>
       <c r="C22" t="n">
-        <v>9.311036784367648</v>
+        <v>9.513178638023016</v>
       </c>
       <c r="D22" t="n">
-        <v>0.3326429969472301</v>
+        <v>0.332701645974088</v>
       </c>
       <c r="E22" t="n">
-        <v>0.6914243575862804</v>
+        <v>0.6795176013480662</v>
       </c>
     </row>
     <row r="23">
@@ -822,16 +822,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>14.19577761762396</v>
+        <v>14.15385126236972</v>
       </c>
       <c r="C23" t="n">
-        <v>9.010170042624782</v>
+        <v>9.27067418500531</v>
       </c>
       <c r="D23" t="n">
-        <v>0.2714931617592373</v>
+        <v>0.2689807365088941</v>
       </c>
       <c r="E23" t="n">
-        <v>0.6866670743318521</v>
+        <v>0.6695727287590562</v>
       </c>
     </row>
     <row r="24">
@@ -839,16 +839,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>14.02758050171391</v>
+        <v>13.99613125257535</v>
       </c>
       <c r="C24" t="n">
-        <v>9.140481980142185</v>
+        <v>9.296835622455809</v>
       </c>
       <c r="D24" t="n">
-        <v>0.2809511610509116</v>
+        <v>0.2799764928823208</v>
       </c>
       <c r="E24" t="n">
-        <v>0.6630340977409352</v>
+        <v>0.6500871479926156</v>
       </c>
     </row>
     <row r="25">
@@ -856,16 +856,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>11.72460668919283</v>
+        <v>11.69845439513108</v>
       </c>
       <c r="C25" t="n">
-        <v>8.384548962545002</v>
+        <v>8.488049143217163</v>
       </c>
       <c r="D25" t="n">
-        <v>0.4172589427266979</v>
+        <v>0.4185694658647123</v>
       </c>
       <c r="E25" t="n">
-        <v>0.7009326953337761</v>
+        <v>0.6907595303548633</v>
       </c>
     </row>
     <row r="26">
@@ -873,16 +873,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>13.20359089812295</v>
+        <v>13.21058858871229</v>
       </c>
       <c r="C26" t="n">
-        <v>9.79450553863329</v>
+        <v>9.967202629435333</v>
       </c>
       <c r="D26" t="n">
-        <v>0.3397864353018475</v>
+        <v>0.3327733502957878</v>
       </c>
       <c r="E26" t="n">
-        <v>0.6451835889840902</v>
+        <v>0.6316173891983037</v>
       </c>
     </row>
     <row r="27">
@@ -890,16 +890,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>12.75118305780597</v>
+        <v>12.69085717066718</v>
       </c>
       <c r="C27" t="n">
-        <v>8.151273178965575</v>
+        <v>8.293895538840422</v>
       </c>
       <c r="D27" t="n">
-        <v>0.437942769113946</v>
+        <v>0.4365593004340879</v>
       </c>
       <c r="E27" t="n">
-        <v>0.75741604788703</v>
+        <v>0.7448919889497601</v>
       </c>
     </row>
     <row r="28">
@@ -907,16 +907,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>13.61504526200742</v>
+        <v>13.5860315447501</v>
       </c>
       <c r="C28" t="n">
-        <v>9.2789832163323</v>
+        <v>9.430904399123589</v>
       </c>
       <c r="D28" t="n">
-        <v>0.3548632570885137</v>
+        <v>0.349801299267005</v>
       </c>
       <c r="E28" t="n">
-        <v>0.693221333845119</v>
+        <v>0.6800664880589411</v>
       </c>
     </row>
     <row r="29">
@@ -924,16 +924,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>13.56068176221681</v>
+        <v>13.54985668721678</v>
       </c>
       <c r="C29" t="n">
-        <v>8.03605628232159</v>
+        <v>8.217315492828726</v>
       </c>
       <c r="D29" t="n">
-        <v>0.4018575624259805</v>
+        <v>0.4020241660921333</v>
       </c>
       <c r="E29" t="n">
-        <v>0.7696618731228561</v>
+        <v>0.7590164084551624</v>
       </c>
     </row>
     <row r="30">
@@ -941,16 +941,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>13.67857408681594</v>
+        <v>13.6855072338078</v>
       </c>
       <c r="C30" t="n">
-        <v>8.819694560296501</v>
+        <v>8.962229682268362</v>
       </c>
       <c r="D30" t="n">
-        <v>0.339286833256053</v>
+        <v>0.3395192406943586</v>
       </c>
       <c r="E30" t="n">
-        <v>0.7086640023898939</v>
+        <v>0.7000558489036172</v>
       </c>
     </row>
     <row r="31">
@@ -958,16 +958,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>13.52150839422847</v>
+        <v>13.66488292170225</v>
       </c>
       <c r="C31" t="n">
-        <v>8.76722524610696</v>
+        <v>9.059365553326984</v>
       </c>
       <c r="D31" t="n">
-        <v>0.2810142694719134</v>
+        <v>0.2664048845101539</v>
       </c>
       <c r="E31" t="n">
-        <v>0.6745850973530073</v>
+        <v>0.6505184993238795</v>
       </c>
     </row>
     <row r="32">
@@ -975,16 +975,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>13.51060976108213</v>
+        <v>13.55072774334188</v>
       </c>
       <c r="C32" t="n">
-        <v>8.532659044220974</v>
+        <v>8.773852893523946</v>
       </c>
       <c r="D32" t="n">
-        <v>0.3725348103284823</v>
+        <v>0.3700336720883757</v>
       </c>
       <c r="E32" t="n">
-        <v>0.7235380907092684</v>
+        <v>0.7122417746992398</v>
       </c>
     </row>
     <row r="33">
@@ -992,16 +992,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>12.69725599471463</v>
+        <v>12.68336342061006</v>
       </c>
       <c r="C33" t="n">
-        <v>8.704019828552259</v>
+        <v>8.862330447957078</v>
       </c>
       <c r="D33" t="n">
-        <v>0.370807616261098</v>
+        <v>0.3714221434738509</v>
       </c>
       <c r="E33" t="n">
-        <v>0.6894797522784212</v>
+        <v>0.6781266555509851</v>
       </c>
     </row>
     <row r="34">
@@ -1009,16 +1009,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>16.41516265038128</v>
+        <v>16.44384251227409</v>
       </c>
       <c r="C34" t="n">
-        <v>10.17652058712198</v>
+        <v>10.43168733863393</v>
       </c>
       <c r="D34" t="n">
-        <v>0.1402729943650016</v>
+        <v>0.1347810337197987</v>
       </c>
       <c r="E34" t="n">
-        <v>0.6318006474403537</v>
+        <v>0.612465484510745</v>
       </c>
     </row>
     <row r="35">
@@ -1026,16 +1026,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>12.72275184162413</v>
+        <v>12.71136350960665</v>
       </c>
       <c r="C35" t="n">
-        <v>8.076864698393889</v>
+        <v>8.250244199733375</v>
       </c>
       <c r="D35" t="n">
-        <v>0.4196779655782977</v>
+        <v>0.4194600040629802</v>
       </c>
       <c r="E35" t="n">
-        <v>0.753575116929919</v>
+        <v>0.7391633158474729</v>
       </c>
     </row>
     <row r="36">
@@ -1043,16 +1043,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>12.06125332724465</v>
+        <v>11.98124742588147</v>
       </c>
       <c r="C36" t="n">
-        <v>8.022607990627765</v>
+        <v>8.200571724205275</v>
       </c>
       <c r="D36" t="n">
-        <v>0.4251562417238792</v>
+        <v>0.4237561443406647</v>
       </c>
       <c r="E36" t="n">
-        <v>0.7420021811151463</v>
+        <v>0.7299525550234601</v>
       </c>
     </row>
     <row r="37">
@@ -1060,16 +1060,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>13.02415566774042</v>
+        <v>13.03894416470163</v>
       </c>
       <c r="C37" t="n">
-        <v>8.204096072188984</v>
+        <v>8.489638057884132</v>
       </c>
       <c r="D37" t="n">
-        <v>0.3732432541646585</v>
+        <v>0.3641923009902576</v>
       </c>
       <c r="E37" t="n">
-        <v>0.7423365596277782</v>
+        <v>0.7230469768386216</v>
       </c>
     </row>
     <row r="38">
@@ -1077,16 +1077,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>12.85314029791235</v>
+        <v>12.89775561847891</v>
       </c>
       <c r="C38" t="n">
-        <v>9.661738743768645</v>
+        <v>9.818389413254446</v>
       </c>
       <c r="D38" t="n">
-        <v>0.3867554512636919</v>
+        <v>0.37722030227717</v>
       </c>
       <c r="E38" t="n">
-        <v>0.6324442384437966</v>
+        <v>0.6148314617176327</v>
       </c>
     </row>
     <row r="39">
@@ -1094,16 +1094,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>14.08051878511552</v>
+        <v>14.02989910566898</v>
       </c>
       <c r="C39" t="n">
-        <v>9.401985804312593</v>
+        <v>9.558463651969529</v>
       </c>
       <c r="D39" t="n">
-        <v>0.2759383610407764</v>
+        <v>0.2759848212325418</v>
       </c>
       <c r="E39" t="n">
-        <v>0.6661037201555888</v>
+        <v>0.6548438507096477</v>
       </c>
     </row>
     <row r="40">
@@ -1111,16 +1111,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>13.80209917800272</v>
+        <v>13.76559528038068</v>
       </c>
       <c r="C40" t="n">
-        <v>8.9942951556732</v>
+        <v>9.128089705120139</v>
       </c>
       <c r="D40" t="n">
-        <v>0.285265690129015</v>
+        <v>0.2842087782836233</v>
       </c>
       <c r="E40" t="n">
-        <v>0.6712242854643357</v>
+        <v>0.6600633665190702</v>
       </c>
     </row>
     <row r="41">
@@ -1128,16 +1128,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>13.94842717891195</v>
+        <v>14.04480509718009</v>
       </c>
       <c r="C41" t="n">
-        <v>9.535176700246797</v>
+        <v>9.730959908585749</v>
       </c>
       <c r="D41" t="n">
-        <v>0.3276796421811951</v>
+        <v>0.3225981745663767</v>
       </c>
       <c r="E41" t="n">
-        <v>0.6834931499315486</v>
+        <v>0.6691958598064215</v>
       </c>
     </row>
     <row r="42">
@@ -1145,16 +1145,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>13.13182396674803</v>
+        <v>13.11625258381181</v>
       </c>
       <c r="C42" t="n">
-        <v>8.337358686315362</v>
+        <v>8.510326037048937</v>
       </c>
       <c r="D42" t="n">
-        <v>0.4029463458052823</v>
+        <v>0.4012346219475648</v>
       </c>
       <c r="E42" t="n">
-        <v>0.7316917451472411</v>
+        <v>0.7191858184913513</v>
       </c>
     </row>
     <row r="43">
@@ -1162,16 +1162,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>13.17341132747411</v>
+        <v>13.2388148986642</v>
       </c>
       <c r="C43" t="n">
-        <v>9.351442807880078</v>
+        <v>9.56385125513067</v>
       </c>
       <c r="D43" t="n">
-        <v>0.3940117213462385</v>
+        <v>0.3885735139790506</v>
       </c>
       <c r="E43" t="n">
-        <v>0.6861525864718168</v>
+        <v>0.6719432585312728</v>
       </c>
     </row>
     <row r="44">
@@ -1179,16 +1179,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>14.28064958594188</v>
+        <v>14.35497719819079</v>
       </c>
       <c r="C44" t="n">
-        <v>9.005486721912414</v>
+        <v>9.216569210391343</v>
       </c>
       <c r="D44" t="n">
-        <v>0.3338049989534656</v>
+        <v>0.3293907233624216</v>
       </c>
       <c r="E44" t="n">
-        <v>0.7265064057276445</v>
+        <v>0.7120758103362532</v>
       </c>
     </row>
     <row r="45">
@@ -1196,16 +1196,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>13.42868082781166</v>
+        <v>13.40561444613789</v>
       </c>
       <c r="C45" t="n">
-        <v>8.570714576948944</v>
+        <v>8.744219368000252</v>
       </c>
       <c r="D45" t="n">
-        <v>0.4083235000414184</v>
+        <v>0.4084661062271263</v>
       </c>
       <c r="E45" t="n">
-        <v>0.7453260764092945</v>
+        <v>0.7330098016081157</v>
       </c>
     </row>
     <row r="46">
@@ -1213,16 +1213,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>13.45887258236066</v>
+        <v>13.45022439532586</v>
       </c>
       <c r="C46" t="n">
-        <v>8.870474484786957</v>
+        <v>9.097114481911746</v>
       </c>
       <c r="D46" t="n">
-        <v>0.3433713299498856</v>
+        <v>0.336500912205383</v>
       </c>
       <c r="E46" t="n">
-        <v>0.6948355136605407</v>
+        <v>0.6776950261358435</v>
       </c>
     </row>
     <row r="47">
@@ -1230,16 +1230,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>13.98453903118697</v>
+        <v>14.00016611438748</v>
       </c>
       <c r="C47" t="n">
-        <v>9.306956363033153</v>
+        <v>9.538677434749591</v>
       </c>
       <c r="D47" t="n">
-        <v>0.3062591938587762</v>
+        <v>0.3015118341164363</v>
       </c>
       <c r="E47" t="n">
-        <v>0.6526993283381294</v>
+        <v>0.6371558319788114</v>
       </c>
     </row>
     <row r="48">
@@ -1247,16 +1247,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>13.69489471553765</v>
+        <v>13.69388485722022</v>
       </c>
       <c r="C48" t="n">
-        <v>9.060143838892429</v>
+        <v>9.240136025270001</v>
       </c>
       <c r="D48" t="n">
-        <v>0.3013264881393274</v>
+        <v>0.2980497839261458</v>
       </c>
       <c r="E48" t="n">
-        <v>0.677485440155029</v>
+        <v>0.6642605481102848</v>
       </c>
     </row>
     <row r="49">
@@ -1264,16 +1264,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>12.29293479386492</v>
+        <v>12.19498370718177</v>
       </c>
       <c r="C49" t="n">
-        <v>7.525766167198242</v>
+        <v>7.605993884673932</v>
       </c>
       <c r="D49" t="n">
-        <v>0.3985121611927303</v>
+        <v>0.4024987981502958</v>
       </c>
       <c r="E49" t="n">
-        <v>0.7652930645730667</v>
+        <v>0.7558865557501917</v>
       </c>
     </row>
     <row r="50">
@@ -1281,16 +1281,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>13.44459334336757</v>
+        <v>13.48163704495425</v>
       </c>
       <c r="C50" t="n">
-        <v>9.355350700104513</v>
+        <v>9.56856131520386</v>
       </c>
       <c r="D50" t="n">
-        <v>0.31284052539588</v>
+        <v>0.3079005088402423</v>
       </c>
       <c r="E50" t="n">
-        <v>0.6569769168434595</v>
+        <v>0.6424087747047901</v>
       </c>
     </row>
     <row r="51">
@@ -1298,16 +1298,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>13.79990052661449</v>
+        <v>13.8669914425709</v>
       </c>
       <c r="C51" t="n">
-        <v>9.157920852990321</v>
+        <v>9.364489896328759</v>
       </c>
       <c r="D51" t="n">
-        <v>0.2776265742763325</v>
+        <v>0.2686785802901553</v>
       </c>
       <c r="E51" t="n">
-        <v>0.6599987804766954</v>
+        <v>0.6413706394429241</v>
       </c>
     </row>
     <row r="52">
@@ -1315,16 +1315,16 @@
         <v>51</v>
       </c>
       <c r="B52" t="n">
-        <v>13.36213817602487</v>
+        <v>13.35066947914221</v>
       </c>
       <c r="C52" t="n">
-        <v>9.016507348979015</v>
+        <v>9.17941873174323</v>
       </c>
       <c r="D52" t="n">
-        <v>0.2970111298164104</v>
+        <v>0.2935205021297742</v>
       </c>
       <c r="E52" t="n">
-        <v>0.6561015215318524</v>
+        <v>0.6408917328246106</v>
       </c>
     </row>
     <row r="53">
@@ -1332,16 +1332,16 @@
         <v>52</v>
       </c>
       <c r="B53" t="n">
-        <v>12.45244374841925</v>
+        <v>12.54868605094462</v>
       </c>
       <c r="C53" t="n">
-        <v>8.644018643044975</v>
+        <v>8.859712197445706</v>
       </c>
       <c r="D53" t="n">
-        <v>0.3843442383574852</v>
+        <v>0.3736989766099404</v>
       </c>
       <c r="E53" t="n">
-        <v>0.6771166851582353</v>
+        <v>0.6578302887902553</v>
       </c>
     </row>
     <row r="54">
@@ -1349,16 +1349,16 @@
         <v>53</v>
       </c>
       <c r="B54" t="n">
-        <v>13.94115689216902</v>
+        <v>13.87397366697621</v>
       </c>
       <c r="C54" t="n">
-        <v>8.385480267129916</v>
+        <v>8.544073149422575</v>
       </c>
       <c r="D54" t="n">
-        <v>0.3711414283356229</v>
+        <v>0.3721076193320361</v>
       </c>
       <c r="E54" t="n">
-        <v>0.7468024623494558</v>
+        <v>0.7384988653292658</v>
       </c>
     </row>
     <row r="55">
@@ -1366,16 +1366,16 @@
         <v>54</v>
       </c>
       <c r="B55" t="n">
-        <v>14.26852036935988</v>
+        <v>14.3074007214094</v>
       </c>
       <c r="C55" t="n">
-        <v>8.259626602162577</v>
+        <v>8.504778052576404</v>
       </c>
       <c r="D55" t="n">
-        <v>0.3455407888255208</v>
+        <v>0.3413338209208067</v>
       </c>
       <c r="E55" t="n">
-        <v>0.7591774038400447</v>
+        <v>0.7453492954589657</v>
       </c>
     </row>
     <row r="56">
@@ -1383,16 +1383,16 @@
         <v>55</v>
       </c>
       <c r="B56" t="n">
-        <v>13.23890019324857</v>
+        <v>13.27477877952896</v>
       </c>
       <c r="C56" t="n">
-        <v>9.037164906110702</v>
+        <v>9.198376580193809</v>
       </c>
       <c r="D56" t="n">
-        <v>0.3512694045609542</v>
+        <v>0.3476215527834754</v>
       </c>
       <c r="E56" t="n">
-        <v>0.7131720276016167</v>
+        <v>0.6992105470284382</v>
       </c>
     </row>
     <row r="57">
@@ -1400,16 +1400,16 @@
         <v>56</v>
       </c>
       <c r="B57" t="n">
-        <v>13.71497874754034</v>
+        <v>13.83289128085604</v>
       </c>
       <c r="C57" t="n">
-        <v>9.32366628114139</v>
+        <v>9.51321388604036</v>
       </c>
       <c r="D57" t="n">
-        <v>0.2868701372533361</v>
+        <v>0.2767318336955393</v>
       </c>
       <c r="E57" t="n">
-        <v>0.6430098420151077</v>
+        <v>0.6230849545686756</v>
       </c>
     </row>
     <row r="58">
@@ -1417,16 +1417,16 @@
         <v>57</v>
       </c>
       <c r="B58" t="n">
-        <v>13.07173228043639</v>
+        <v>13.06443300141807</v>
       </c>
       <c r="C58" t="n">
-        <v>9.1409464580091</v>
+        <v>9.309855542260804</v>
       </c>
       <c r="D58" t="n">
-        <v>0.329968618927042</v>
+        <v>0.329663260306619</v>
       </c>
       <c r="E58" t="n">
-        <v>0.6775013957465341</v>
+        <v>0.6630855337877637</v>
       </c>
     </row>
     <row r="59">
@@ -1434,16 +1434,16 @@
         <v>58</v>
       </c>
       <c r="B59" t="n">
-        <v>14.39471169043744</v>
+        <v>14.41200679219626</v>
       </c>
       <c r="C59" t="n">
-        <v>9.145904972023638</v>
+        <v>9.402225753311717</v>
       </c>
       <c r="D59" t="n">
-        <v>0.3284880887095363</v>
+        <v>0.3239558241620915</v>
       </c>
       <c r="E59" t="n">
-        <v>0.7240132246240112</v>
+        <v>0.7080041820739549</v>
       </c>
     </row>
     <row r="60">
@@ -1451,16 +1451,16 @@
         <v>59</v>
       </c>
       <c r="B60" t="n">
-        <v>12.48135992371801</v>
+        <v>12.43012418954044</v>
       </c>
       <c r="C60" t="n">
-        <v>8.472917443692939</v>
+        <v>8.632397182901487</v>
       </c>
       <c r="D60" t="n">
-        <v>0.4252910248447943</v>
+        <v>0.4253641571297633</v>
       </c>
       <c r="E60" t="n">
-        <v>0.7281928829424681</v>
+        <v>0.7196909166024283</v>
       </c>
     </row>
     <row r="61">
@@ -1468,16 +1468,16 @@
         <v>60</v>
       </c>
       <c r="B61" t="n">
-        <v>13.16640564423688</v>
+        <v>13.13849947814519</v>
       </c>
       <c r="C61" t="n">
-        <v>9.449556906253271</v>
+        <v>9.584869701718144</v>
       </c>
       <c r="D61" t="n">
-        <v>0.3602475152997704</v>
+        <v>0.3599684502691032</v>
       </c>
       <c r="E61" t="n">
-        <v>0.6629778499345778</v>
+        <v>0.6513876611517817</v>
       </c>
     </row>
     <row r="62">
@@ -1485,16 +1485,16 @@
         <v>61</v>
       </c>
       <c r="B62" t="n">
-        <v>14.43533143768067</v>
+        <v>14.42562947781788</v>
       </c>
       <c r="C62" t="n">
-        <v>9.166823008666412</v>
+        <v>9.33079236242404</v>
       </c>
       <c r="D62" t="n">
-        <v>0.2835332952943851</v>
+        <v>0.2795123687998919</v>
       </c>
       <c r="E62" t="n">
-        <v>0.6845407699532504</v>
+        <v>0.6692956842423726</v>
       </c>
     </row>
     <row r="63">
@@ -1502,16 +1502,16 @@
         <v>62</v>
       </c>
       <c r="B63" t="n">
-        <v>15.08266634485303</v>
+        <v>15.13031708629837</v>
       </c>
       <c r="C63" t="n">
-        <v>10.1320551097098</v>
+        <v>10.29226353313594</v>
       </c>
       <c r="D63" t="n">
-        <v>0.184093260450883</v>
+        <v>0.1805955079305578</v>
       </c>
       <c r="E63" t="n">
-        <v>0.6271347121553961</v>
+        <v>0.6134022577155066</v>
       </c>
     </row>
     <row r="64">
@@ -1519,16 +1519,16 @@
         <v>63</v>
       </c>
       <c r="B64" t="n">
-        <v>13.57387362846762</v>
+        <v>13.63129347432571</v>
       </c>
       <c r="C64" t="n">
-        <v>9.705405846552418</v>
+        <v>9.937508361148526</v>
       </c>
       <c r="D64" t="n">
-        <v>0.3214763281312298</v>
+        <v>0.3120373114919852</v>
       </c>
       <c r="E64" t="n">
-        <v>0.6166206319766641</v>
+        <v>0.600577819572351</v>
       </c>
     </row>
     <row r="65">
@@ -1536,16 +1536,16 @@
         <v>64</v>
       </c>
       <c r="B65" t="n">
-        <v>11.83351659273136</v>
+        <v>11.88082048706069</v>
       </c>
       <c r="C65" t="n">
-        <v>7.947472601065646</v>
+        <v>8.097413091427201</v>
       </c>
       <c r="D65" t="n">
-        <v>0.4284931665819359</v>
+        <v>0.4246576019663654</v>
       </c>
       <c r="E65" t="n">
-        <v>0.7338622780973427</v>
+        <v>0.7223257611602787</v>
       </c>
     </row>
     <row r="66">
@@ -1553,16 +1553,16 @@
         <v>65</v>
       </c>
       <c r="B66" t="n">
-        <v>13.64191140165589</v>
+        <v>13.64754857316518</v>
       </c>
       <c r="C66" t="n">
-        <v>8.975388186926548</v>
+        <v>9.162107539436356</v>
       </c>
       <c r="D66" t="n">
-        <v>0.2764875483478811</v>
+        <v>0.2746122129043178</v>
       </c>
       <c r="E66" t="n">
-        <v>0.6747401955790442</v>
+        <v>0.6602390217550773</v>
       </c>
     </row>
     <row r="67">
@@ -1570,16 +1570,16 @@
         <v>66</v>
       </c>
       <c r="B67" t="n">
-        <v>12.22995376277984</v>
+        <v>12.11537548567215</v>
       </c>
       <c r="C67" t="n">
-        <v>7.763482681682178</v>
+        <v>7.877167469892411</v>
       </c>
       <c r="D67" t="n">
-        <v>0.4721251860554754</v>
+        <v>0.4782085845236637</v>
       </c>
       <c r="E67" t="n">
-        <v>0.7899450564825405</v>
+        <v>0.7829096034711416</v>
       </c>
     </row>
     <row r="68">
@@ -1587,16 +1587,16 @@
         <v>67</v>
       </c>
       <c r="B68" t="n">
-        <v>13.71004481722093</v>
+        <v>13.60574966667339</v>
       </c>
       <c r="C68" t="n">
-        <v>8.244237361117962</v>
+        <v>8.419549526317477</v>
       </c>
       <c r="D68" t="n">
-        <v>0.4020157019782149</v>
+        <v>0.4035094384978228</v>
       </c>
       <c r="E68" t="n">
-        <v>0.7548535274351204</v>
+        <v>0.7428322522529074</v>
       </c>
     </row>
     <row r="69">
@@ -1604,16 +1604,16 @@
         <v>68</v>
       </c>
       <c r="B69" t="n">
-        <v>12.85356212313277</v>
+        <v>12.88842777143818</v>
       </c>
       <c r="C69" t="n">
-        <v>8.702208749097743</v>
+        <v>8.953128742283322</v>
       </c>
       <c r="D69" t="n">
-        <v>0.3887537693830087</v>
+        <v>0.3797377940455081</v>
       </c>
       <c r="E69" t="n">
-        <v>0.7177573067455337</v>
+        <v>0.6978051244004313</v>
       </c>
     </row>
     <row r="70">
@@ -1621,16 +1621,16 @@
         <v>69</v>
       </c>
       <c r="B70" t="n">
-        <v>13.80373945960475</v>
+        <v>13.81246719402372</v>
       </c>
       <c r="C70" t="n">
-        <v>9.647576757185272</v>
+        <v>9.817428329198817</v>
       </c>
       <c r="D70" t="n">
-        <v>0.2970484036264288</v>
+        <v>0.2942621751043988</v>
       </c>
       <c r="E70" t="n">
-        <v>0.6527220889565362</v>
+        <v>0.6404577749644271</v>
       </c>
     </row>
     <row r="71">
@@ -1638,16 +1638,16 @@
         <v>70</v>
       </c>
       <c r="B71" t="n">
-        <v>13.9072498586716</v>
+        <v>13.92889180110669</v>
       </c>
       <c r="C71" t="n">
-        <v>8.958501315737642</v>
+        <v>9.192510036656913</v>
       </c>
       <c r="D71" t="n">
-        <v>0.3038587806447774</v>
+        <v>0.3016001482401962</v>
       </c>
       <c r="E71" t="n">
-        <v>0.6917466697835866</v>
+        <v>0.6768688079027194</v>
       </c>
     </row>
     <row r="72">
@@ -1655,16 +1655,16 @@
         <v>71</v>
       </c>
       <c r="B72" t="n">
-        <v>12.6035037091546</v>
+        <v>12.66087427453303</v>
       </c>
       <c r="C72" t="n">
-        <v>8.812016224225326</v>
+        <v>8.995244617869718</v>
       </c>
       <c r="D72" t="n">
-        <v>0.3873409194300462</v>
+        <v>0.3761108958320902</v>
       </c>
       <c r="E72" t="n">
-        <v>0.71199946597474</v>
+        <v>0.6944240449831987</v>
       </c>
     </row>
     <row r="73">
@@ -1672,16 +1672,16 @@
         <v>72</v>
       </c>
       <c r="B73" t="n">
-        <v>12.99761727098121</v>
+        <v>12.94003468934871</v>
       </c>
       <c r="C73" t="n">
-        <v>8.497606025068722</v>
+        <v>8.593287380296784</v>
       </c>
       <c r="D73" t="n">
-        <v>0.3473358946785777</v>
+        <v>0.3494110727698359</v>
       </c>
       <c r="E73" t="n">
-        <v>0.7100561118692144</v>
+        <v>0.699290183876072</v>
       </c>
     </row>
     <row r="74">
@@ -1689,16 +1689,16 @@
         <v>73</v>
       </c>
       <c r="B74" t="n">
-        <v>12.25345932975184</v>
+        <v>12.2366657667886</v>
       </c>
       <c r="C74" t="n">
-        <v>8.801231862731399</v>
+        <v>8.881340222403132</v>
       </c>
       <c r="D74" t="n">
-        <v>0.4039599800943259</v>
+        <v>0.4038254559880746</v>
       </c>
       <c r="E74" t="n">
-        <v>0.7328847967742285</v>
+        <v>0.7247398585093946</v>
       </c>
     </row>
     <row r="75">
@@ -1706,16 +1706,16 @@
         <v>74</v>
       </c>
       <c r="B75" t="n">
-        <v>14.35601117601241</v>
+        <v>14.35986317653405</v>
       </c>
       <c r="C75" t="n">
-        <v>8.319590963588055</v>
+        <v>8.555183708925384</v>
       </c>
       <c r="D75" t="n">
-        <v>0.3442004042164406</v>
+        <v>0.3426618579431421</v>
       </c>
       <c r="E75" t="n">
-        <v>0.7363740559513422</v>
+        <v>0.7234844286761007</v>
       </c>
     </row>
     <row r="76">
@@ -1723,16 +1723,16 @@
         <v>75</v>
       </c>
       <c r="B76" t="n">
-        <v>13.57229346520118</v>
+        <v>13.58499573646995</v>
       </c>
       <c r="C76" t="n">
-        <v>9.092568551800005</v>
+        <v>9.329513985714218</v>
       </c>
       <c r="D76" t="n">
-        <v>0.3016353608852914</v>
+        <v>0.2988810883908147</v>
       </c>
       <c r="E76" t="n">
-        <v>0.6718276106388168</v>
+        <v>0.656316128739979</v>
       </c>
     </row>
     <row r="77">
@@ -1740,16 +1740,16 @@
         <v>76</v>
       </c>
       <c r="B77" t="n">
-        <v>13.86326845923227</v>
+        <v>13.79999647306648</v>
       </c>
       <c r="C77" t="n">
-        <v>9.245809711094193</v>
+        <v>9.432143960625694</v>
       </c>
       <c r="D77" t="n">
-        <v>0.3399330425814134</v>
+        <v>0.3424551530859773</v>
       </c>
       <c r="E77" t="n">
-        <v>0.6722699978053496</v>
+        <v>0.6607078700728066</v>
       </c>
     </row>
     <row r="78">
@@ -1757,16 +1757,16 @@
         <v>77</v>
       </c>
       <c r="B78" t="n">
-        <v>14.10343877791756</v>
+        <v>14.04682934777054</v>
       </c>
       <c r="C78" t="n">
-        <v>8.731514419338378</v>
+        <v>8.919429398734978</v>
       </c>
       <c r="D78" t="n">
-        <v>0.3138153586879655</v>
+        <v>0.3108277540524051</v>
       </c>
       <c r="E78" t="n">
-        <v>0.7183141960355729</v>
+        <v>0.7037796616767342</v>
       </c>
     </row>
     <row r="79">
@@ -1774,16 +1774,16 @@
         <v>78</v>
       </c>
       <c r="B79" t="n">
-        <v>13.15291066014541</v>
+        <v>13.15863949953747</v>
       </c>
       <c r="C79" t="n">
-        <v>8.85941162688569</v>
+        <v>9.023518896604914</v>
       </c>
       <c r="D79" t="n">
-        <v>0.2846085355397608</v>
+        <v>0.2868665630241936</v>
       </c>
       <c r="E79" t="n">
-        <v>0.6486307069528061</v>
+        <v>0.6383486300780102</v>
       </c>
     </row>
     <row r="80">
@@ -1791,16 +1791,16 @@
         <v>79</v>
       </c>
       <c r="B80" t="n">
-        <v>14.35354597908588</v>
+        <v>14.32778283712911</v>
       </c>
       <c r="C80" t="n">
-        <v>8.60135640633359</v>
+        <v>8.796291008070945</v>
       </c>
       <c r="D80" t="n">
-        <v>0.3589485235792261</v>
+        <v>0.3590502830003185</v>
       </c>
       <c r="E80" t="n">
-        <v>0.7504399707868002</v>
+        <v>0.7400404129967736</v>
       </c>
     </row>
     <row r="81">
@@ -1808,16 +1808,16 @@
         <v>80</v>
       </c>
       <c r="B81" t="n">
-        <v>12.5362172540132</v>
+        <v>12.65400150921266</v>
       </c>
       <c r="C81" t="n">
-        <v>9.186430614110595</v>
+        <v>9.43499081645844</v>
       </c>
       <c r="D81" t="n">
-        <v>0.4367192570686658</v>
+        <v>0.4271507333479824</v>
       </c>
       <c r="E81" t="n">
-        <v>0.678742812537229</v>
+        <v>0.6605312590747446</v>
       </c>
     </row>
     <row r="82">
@@ -1825,16 +1825,16 @@
         <v>81</v>
       </c>
       <c r="B82" t="n">
-        <v>13.97062276737121</v>
+        <v>14.02380145438264</v>
       </c>
       <c r="C82" t="n">
-        <v>9.4299808221686</v>
+        <v>9.646676142795995</v>
       </c>
       <c r="D82" t="n">
-        <v>0.2311391279261228</v>
+        <v>0.2177647730226639</v>
       </c>
       <c r="E82" t="n">
-        <v>0.6306491672017869</v>
+        <v>0.6080887777205823</v>
       </c>
     </row>
     <row r="83">
@@ -1842,16 +1842,16 @@
         <v>82</v>
       </c>
       <c r="B83" t="n">
-        <v>15.19097503627731</v>
+        <v>15.18672491826376</v>
       </c>
       <c r="C83" t="n">
-        <v>8.889348001534048</v>
+        <v>9.110907617206319</v>
       </c>
       <c r="D83" t="n">
-        <v>0.2453543854371584</v>
+        <v>0.2448300993608825</v>
       </c>
       <c r="E83" t="n">
-        <v>0.7165527791991492</v>
+        <v>0.7010719253777331</v>
       </c>
     </row>
     <row r="84">
@@ -1859,16 +1859,16 @@
         <v>83</v>
       </c>
       <c r="B84" t="n">
-        <v>12.48224241654098</v>
+        <v>12.49158367094782</v>
       </c>
       <c r="C84" t="n">
-        <v>8.918578376063058</v>
+        <v>9.077513787304447</v>
       </c>
       <c r="D84" t="n">
-        <v>0.4073696035492365</v>
+        <v>0.4073317953360361</v>
       </c>
       <c r="E84" t="n">
-        <v>0.6633215243037255</v>
+        <v>0.6523814542675138</v>
       </c>
     </row>
     <row r="85">
@@ -1876,16 +1876,16 @@
         <v>84</v>
       </c>
       <c r="B85" t="n">
-        <v>12.95672126826274</v>
+        <v>12.92486302864734</v>
       </c>
       <c r="C85" t="n">
-        <v>8.882841006271985</v>
+        <v>9.011353018702886</v>
       </c>
       <c r="D85" t="n">
-        <v>0.3794855003686907</v>
+        <v>0.3796742958062225</v>
       </c>
       <c r="E85" t="n">
-        <v>0.6785493412873247</v>
+        <v>0.6708650986784248</v>
       </c>
     </row>
     <row r="86">
@@ -1893,16 +1893,16 @@
         <v>85</v>
       </c>
       <c r="B86" t="n">
-        <v>12.13442248410629</v>
+        <v>12.17290851191109</v>
       </c>
       <c r="C86" t="n">
-        <v>8.169241361181307</v>
+        <v>8.350788373247928</v>
       </c>
       <c r="D86" t="n">
-        <v>0.4274075885042168</v>
+        <v>0.4230808375979184</v>
       </c>
       <c r="E86" t="n">
-        <v>0.7285627762120874</v>
+        <v>0.715964415300026</v>
       </c>
     </row>
     <row r="87">
@@ -1910,16 +1910,16 @@
         <v>86</v>
       </c>
       <c r="B87" t="n">
-        <v>13.31814554396085</v>
+        <v>13.31692914929498</v>
       </c>
       <c r="C87" t="n">
-        <v>8.421239967265262</v>
+        <v>8.633189096050193</v>
       </c>
       <c r="D87" t="n">
-        <v>0.4130428507804027</v>
+        <v>0.4095090284949264</v>
       </c>
       <c r="E87" t="n">
-        <v>0.7567884170594077</v>
+        <v>0.7440322283114609</v>
       </c>
     </row>
     <row r="88">
@@ -1927,16 +1927,16 @@
         <v>87</v>
       </c>
       <c r="B88" t="n">
-        <v>13.98130416978426</v>
+        <v>13.97725570343584</v>
       </c>
       <c r="C88" t="n">
-        <v>9.072538471283139</v>
+        <v>9.256882067986956</v>
       </c>
       <c r="D88" t="n">
-        <v>0.3310961839294941</v>
+        <v>0.329362513095082</v>
       </c>
       <c r="E88" t="n">
-        <v>0.6991607399152695</v>
+        <v>0.6869629118380067</v>
       </c>
     </row>
     <row r="89">
@@ -1944,16 +1944,16 @@
         <v>88</v>
       </c>
       <c r="B89" t="n">
-        <v>13.14169533674473</v>
+        <v>13.14228584221942</v>
       </c>
       <c r="C89" t="n">
-        <v>8.103708783219638</v>
+        <v>8.260973384928597</v>
       </c>
       <c r="D89" t="n">
-        <v>0.4133868440991714</v>
+        <v>0.4154307398630903</v>
       </c>
       <c r="E89" t="n">
-        <v>0.7522743299196449</v>
+        <v>0.7397536650034798</v>
       </c>
     </row>
     <row r="90">
@@ -1961,16 +1961,16 @@
         <v>89</v>
       </c>
       <c r="B90" t="n">
-        <v>13.84487210732354</v>
+        <v>13.79333245963515</v>
       </c>
       <c r="C90" t="n">
-        <v>9.57194313549455</v>
+        <v>9.731137640497645</v>
       </c>
       <c r="D90" t="n">
-        <v>0.3318163514582704</v>
+        <v>0.3298924676307982</v>
       </c>
       <c r="E90" t="n">
-        <v>0.6899462299538567</v>
+        <v>0.6764055626452703</v>
       </c>
     </row>
     <row r="91">
@@ -1978,16 +1978,16 @@
         <v>90</v>
       </c>
       <c r="B91" t="n">
-        <v>13.21690846564426</v>
+        <v>13.29026921336124</v>
       </c>
       <c r="C91" t="n">
-        <v>9.209913937653353</v>
+        <v>9.420604055194039</v>
       </c>
       <c r="D91" t="n">
-        <v>0.3182253404831713</v>
+        <v>0.3096283598370038</v>
       </c>
       <c r="E91" t="n">
-        <v>0.6787406275244957</v>
+        <v>0.66180666415621</v>
       </c>
     </row>
     <row r="92">
@@ -1995,16 +1995,16 @@
         <v>91</v>
       </c>
       <c r="B92" t="n">
-        <v>13.2357229093902</v>
+        <v>13.28233384672609</v>
       </c>
       <c r="C92" t="n">
-        <v>8.691003030914896</v>
+        <v>8.904260703452357</v>
       </c>
       <c r="D92" t="n">
-        <v>0.2837769156456675</v>
+        <v>0.2767583205160727</v>
       </c>
       <c r="E92" t="n">
-        <v>0.6803113988162854</v>
+        <v>0.6611533411271536</v>
       </c>
     </row>
     <row r="93">
@@ -2012,16 +2012,16 @@
         <v>92</v>
       </c>
       <c r="B93" t="n">
-        <v>13.74640227788628</v>
+        <v>13.79342211995235</v>
       </c>
       <c r="C93" t="n">
-        <v>10.02283236948122</v>
+        <v>10.24293506831739</v>
       </c>
       <c r="D93" t="n">
-        <v>0.2761095630255732</v>
+        <v>0.2670829982051839</v>
       </c>
       <c r="E93" t="n">
-        <v>0.5622644127994259</v>
+        <v>0.5449372681879332</v>
       </c>
     </row>
     <row r="94">
@@ -2029,16 +2029,16 @@
         <v>93</v>
       </c>
       <c r="B94" t="n">
-        <v>13.66581180206919</v>
+        <v>13.64510716724542</v>
       </c>
       <c r="C94" t="n">
-        <v>9.310780159644665</v>
+        <v>9.54380323463791</v>
       </c>
       <c r="D94" t="n">
-        <v>0.3067881889950338</v>
+        <v>0.3045665481092206</v>
       </c>
       <c r="E94" t="n">
-        <v>0.6747459878890597</v>
+        <v>0.6594544760574648</v>
       </c>
     </row>
     <row r="95">
@@ -2046,16 +2046,16 @@
         <v>94</v>
       </c>
       <c r="B95" t="n">
-        <v>13.16689774434189</v>
+        <v>13.14369053088275</v>
       </c>
       <c r="C95" t="n">
-        <v>8.660427893935008</v>
+        <v>8.86098452249624</v>
       </c>
       <c r="D95" t="n">
-        <v>0.408957855122462</v>
+        <v>0.4082923087883442</v>
       </c>
       <c r="E95" t="n">
-        <v>0.7387220311352746</v>
+        <v>0.727466850146792</v>
       </c>
     </row>
     <row r="96">
@@ -2063,16 +2063,16 @@
         <v>95</v>
       </c>
       <c r="B96" t="n">
-        <v>14.64285696616973</v>
+        <v>14.62655088498941</v>
       </c>
       <c r="C96" t="n">
-        <v>9.317030162334916</v>
+        <v>9.515746006179315</v>
       </c>
       <c r="D96" t="n">
-        <v>0.3326538965816389</v>
+        <v>0.329985618947565</v>
       </c>
       <c r="E96" t="n">
-        <v>0.6863085549495402</v>
+        <v>0.6714990003536099</v>
       </c>
     </row>
     <row r="97">
@@ -2080,16 +2080,16 @@
         <v>96</v>
       </c>
       <c r="B97" t="n">
-        <v>14.6593996582757</v>
+        <v>14.66520757380022</v>
       </c>
       <c r="C97" t="n">
-        <v>9.881423992935382</v>
+        <v>10.03269988270794</v>
       </c>
       <c r="D97" t="n">
-        <v>0.2926195507971233</v>
+        <v>0.2914649627500123</v>
       </c>
       <c r="E97" t="n">
-        <v>0.667523863231569</v>
+        <v>0.6550423467255442</v>
       </c>
     </row>
     <row r="98">
@@ -2097,16 +2097,16 @@
         <v>97</v>
       </c>
       <c r="B98" t="n">
-        <v>13.29100545317572</v>
+        <v>13.25018741023109</v>
       </c>
       <c r="C98" t="n">
-        <v>8.350702362977692</v>
+        <v>8.475807516538476</v>
       </c>
       <c r="D98" t="n">
-        <v>0.4099767344616349</v>
+        <v>0.4097903618686086</v>
       </c>
       <c r="E98" t="n">
-        <v>0.7420443564493571</v>
+        <v>0.7347729605478168</v>
       </c>
     </row>
     <row r="99">
@@ -2114,16 +2114,16 @@
         <v>98</v>
       </c>
       <c r="B99" t="n">
-        <v>11.31216413858755</v>
+        <v>11.25884744665149</v>
       </c>
       <c r="C99" t="n">
-        <v>8.615747949905334</v>
+        <v>8.702967670756829</v>
       </c>
       <c r="D99" t="n">
-        <v>0.4300998225900222</v>
+        <v>0.428589578587225</v>
       </c>
       <c r="E99" t="n">
-        <v>0.708312683676659</v>
+        <v>0.6971610848100768</v>
       </c>
     </row>
     <row r="100">
@@ -2131,16 +2131,16 @@
         <v>99</v>
       </c>
       <c r="B100" t="n">
-        <v>13.21874116167238</v>
+        <v>13.20451232028816</v>
       </c>
       <c r="C100" t="n">
-        <v>7.574739289246524</v>
+        <v>7.798777230896132</v>
       </c>
       <c r="D100" t="n">
-        <v>0.3707928630692928</v>
+        <v>0.3707107178071256</v>
       </c>
       <c r="E100" t="n">
-        <v>0.7697435312768348</v>
+        <v>0.757216711582072</v>
       </c>
     </row>
     <row r="101">
@@ -2148,16 +2148,16 @@
         <v>100</v>
       </c>
       <c r="B101" t="n">
-        <v>14.0421300118134</v>
+        <v>14.05974207478974</v>
       </c>
       <c r="C101" t="n">
-        <v>8.704359151514264</v>
+        <v>8.903253604263755</v>
       </c>
       <c r="D101" t="n">
-        <v>0.3156408493614921</v>
+        <v>0.3111919101807863</v>
       </c>
       <c r="E101" t="n">
-        <v>0.7111572088878185</v>
+        <v>0.696660457838715</v>
       </c>
     </row>
     <row r="102">
@@ -2165,16 +2165,16 @@
         <v>101</v>
       </c>
       <c r="B102" t="n">
-        <v>12.57553708672184</v>
+        <v>12.62067264967583</v>
       </c>
       <c r="C102" t="n">
-        <v>8.356727751499935</v>
+        <v>8.51205623923228</v>
       </c>
       <c r="D102" t="n">
-        <v>0.371571526024409</v>
+        <v>0.3702658437826208</v>
       </c>
       <c r="E102" t="n">
-        <v>0.7219606043849893</v>
+        <v>0.7107232517602853</v>
       </c>
     </row>
     <row r="103">
@@ -2182,16 +2182,16 @@
         <v>102</v>
       </c>
       <c r="B103" t="n">
-        <v>14.13295497401115</v>
+        <v>14.19383567322722</v>
       </c>
       <c r="C103" t="n">
-        <v>8.991500814786148</v>
+        <v>9.298223405014244</v>
       </c>
       <c r="D103" t="n">
-        <v>0.3596616929911408</v>
+        <v>0.3518745255101206</v>
       </c>
       <c r="E103" t="n">
-        <v>0.710490441154806</v>
+        <v>0.6918042603776968</v>
       </c>
     </row>
     <row r="104">
@@ -2199,16 +2199,16 @@
         <v>103</v>
       </c>
       <c r="B104" t="n">
-        <v>13.40933869107868</v>
+        <v>13.49694291878905</v>
       </c>
       <c r="C104" t="n">
-        <v>9.139162656114651</v>
+        <v>9.371815598970302</v>
       </c>
       <c r="D104" t="n">
-        <v>0.3198750798428619</v>
+        <v>0.3120103382831363</v>
       </c>
       <c r="E104" t="n">
-        <v>0.6733085050869332</v>
+        <v>0.654294992306633</v>
       </c>
     </row>
     <row r="105">
@@ -2216,16 +2216,16 @@
         <v>104</v>
       </c>
       <c r="B105" t="n">
-        <v>13.46877265627258</v>
+        <v>13.39678521703115</v>
       </c>
       <c r="C105" t="n">
-        <v>8.32507686531603</v>
+        <v>8.412784895931356</v>
       </c>
       <c r="D105" t="n">
-        <v>0.3451757467502301</v>
+        <v>0.3473327937169407</v>
       </c>
       <c r="E105" t="n">
-        <v>0.7363335645246156</v>
+        <v>0.7299513266422702</v>
       </c>
     </row>
     <row r="106">
@@ -2233,16 +2233,16 @@
         <v>105</v>
       </c>
       <c r="B106" t="n">
-        <v>13.93486450513654</v>
+        <v>13.91409523239089</v>
       </c>
       <c r="C106" t="n">
-        <v>9.66236367084494</v>
+        <v>9.836568800437986</v>
       </c>
       <c r="D106" t="n">
-        <v>0.271047700523806</v>
+        <v>0.2665666910160078</v>
       </c>
       <c r="E106" t="n">
-        <v>0.6469802455740774</v>
+        <v>0.6306970390949</v>
       </c>
     </row>
     <row r="107">
@@ -2250,16 +2250,16 @@
         <v>106</v>
       </c>
       <c r="B107" t="n">
-        <v>12.94279983850541</v>
+        <v>12.9854011896721</v>
       </c>
       <c r="C107" t="n">
-        <v>8.568555946392507</v>
+        <v>8.75596542695919</v>
       </c>
       <c r="D107" t="n">
-        <v>0.4215181984983323</v>
+        <v>0.4164159250857941</v>
       </c>
       <c r="E107" t="n">
-        <v>0.7541002213075798</v>
+        <v>0.7406332017888247</v>
       </c>
     </row>
     <row r="108">
@@ -2267,16 +2267,16 @@
         <v>107</v>
       </c>
       <c r="B108" t="n">
-        <v>14.08981319859486</v>
+        <v>14.10558443991008</v>
       </c>
       <c r="C108" t="n">
-        <v>9.054529770801116</v>
+        <v>9.299847907759137</v>
       </c>
       <c r="D108" t="n">
-        <v>0.3247986450736355</v>
+        <v>0.3202131886251868</v>
       </c>
       <c r="E108" t="n">
-        <v>0.6715373660557072</v>
+        <v>0.654069277296863</v>
       </c>
     </row>
     <row r="109">
@@ -2284,16 +2284,16 @@
         <v>108</v>
       </c>
       <c r="B109" t="n">
-        <v>13.43881070886641</v>
+        <v>13.44660917445524</v>
       </c>
       <c r="C109" t="n">
-        <v>9.368283542259372</v>
+        <v>9.553259408700077</v>
       </c>
       <c r="D109" t="n">
-        <v>0.3314827735091667</v>
+        <v>0.3239473299978207</v>
       </c>
       <c r="E109" t="n">
-        <v>0.6538205995180895</v>
+        <v>0.6397165691027009</v>
       </c>
     </row>
     <row r="110">
@@ -2301,16 +2301,16 @@
         <v>109</v>
       </c>
       <c r="B110" t="n">
-        <v>13.16680012507672</v>
+        <v>13.15970104942866</v>
       </c>
       <c r="C110" t="n">
-        <v>8.6806786321891</v>
+        <v>8.775482881714668</v>
       </c>
       <c r="D110" t="n">
-        <v>0.3194898260506325</v>
+        <v>0.3211429643195415</v>
       </c>
       <c r="E110" t="n">
-        <v>0.6719740669166312</v>
+        <v>0.661870141488486</v>
       </c>
     </row>
     <row r="111">
@@ -2318,16 +2318,16 @@
         <v>110</v>
       </c>
       <c r="B111" t="n">
-        <v>13.55343986093717</v>
+        <v>13.52526144094075</v>
       </c>
       <c r="C111" t="n">
-        <v>8.285213235235835</v>
+        <v>8.513895920392043</v>
       </c>
       <c r="D111" t="n">
-        <v>0.375758490931968</v>
+        <v>0.3759660168503981</v>
       </c>
       <c r="E111" t="n">
-        <v>0.7568553168550901</v>
+        <v>0.7427706953946347</v>
       </c>
     </row>
     <row r="112">
@@ -2335,16 +2335,16 @@
         <v>111</v>
       </c>
       <c r="B112" t="n">
-        <v>13.67441166360513</v>
+        <v>13.62883821764827</v>
       </c>
       <c r="C112" t="n">
-        <v>8.045595497688693</v>
+        <v>8.254008500268633</v>
       </c>
       <c r="D112" t="n">
-        <v>0.3480431740745312</v>
+        <v>0.3481002644048369</v>
       </c>
       <c r="E112" t="n">
-        <v>0.7481840066508711</v>
+        <v>0.7354025709368734</v>
       </c>
     </row>
     <row r="113">
@@ -2352,16 +2352,16 @@
         <v>112</v>
       </c>
       <c r="B113" t="n">
-        <v>13.93014974326318</v>
+        <v>13.92681424575254</v>
       </c>
       <c r="C113" t="n">
-        <v>9.237304838290084</v>
+        <v>9.383811101008225</v>
       </c>
       <c r="D113" t="n">
-        <v>0.3642287147339855</v>
+        <v>0.3608737981255993</v>
       </c>
       <c r="E113" t="n">
-        <v>0.7065387549375703</v>
+        <v>0.6947444194839844</v>
       </c>
     </row>
     <row r="114">
@@ -2369,16 +2369,16 @@
         <v>113</v>
       </c>
       <c r="B114" t="n">
-        <v>13.55669327543676</v>
+        <v>13.55710086794966</v>
       </c>
       <c r="C114" t="n">
-        <v>8.237327090965417</v>
+        <v>8.438449812752856</v>
       </c>
       <c r="D114" t="n">
-        <v>0.3965491751630361</v>
+        <v>0.393803861434416</v>
       </c>
       <c r="E114" t="n">
-        <v>0.7569214351540605</v>
+        <v>0.7427361608317393</v>
       </c>
     </row>
     <row r="115">
@@ -2386,16 +2386,16 @@
         <v>114</v>
       </c>
       <c r="B115" t="n">
-        <v>14.17046345496487</v>
+        <v>14.23343281827689</v>
       </c>
       <c r="C115" t="n">
-        <v>9.198853432333232</v>
+        <v>9.456082265760148</v>
       </c>
       <c r="D115" t="n">
-        <v>0.2590363546984366</v>
+        <v>0.2496155829298764</v>
       </c>
       <c r="E115" t="n">
-        <v>0.657355968212555</v>
+        <v>0.6382313210342985</v>
       </c>
     </row>
     <row r="116">
@@ -2403,16 +2403,16 @@
         <v>115</v>
       </c>
       <c r="B116" t="n">
-        <v>14.11791607848116</v>
+        <v>14.09052378523486</v>
       </c>
       <c r="C116" t="n">
-        <v>10.41447923600086</v>
+        <v>10.53099248712044</v>
       </c>
       <c r="D116" t="n">
-        <v>0.1611341828700242</v>
+        <v>0.163848136617156</v>
       </c>
       <c r="E116" t="n">
-        <v>0.5497758336865155</v>
+        <v>0.5390035830961867</v>
       </c>
     </row>
     <row r="117">
@@ -2420,16 +2420,16 @@
         <v>116</v>
       </c>
       <c r="B117" t="n">
-        <v>12.38992283646079</v>
+        <v>12.3689279480859</v>
       </c>
       <c r="C117" t="n">
-        <v>8.312824656078567</v>
+        <v>8.431120088669859</v>
       </c>
       <c r="D117" t="n">
-        <v>0.429768594630037</v>
+        <v>0.4290133775395641</v>
       </c>
       <c r="E117" t="n">
-        <v>0.7275570738670865</v>
+        <v>0.7174151147992707</v>
       </c>
     </row>
     <row r="118">
@@ -2437,16 +2437,16 @@
         <v>117</v>
       </c>
       <c r="B118" t="n">
-        <v>12.70750432148901</v>
+        <v>12.72122080549045</v>
       </c>
       <c r="C118" t="n">
-        <v>9.822473228168658</v>
+        <v>9.970258693455616</v>
       </c>
       <c r="D118" t="n">
-        <v>0.3407192605638698</v>
+        <v>0.3360961172329524</v>
       </c>
       <c r="E118" t="n">
-        <v>0.6473392199022052</v>
+        <v>0.6324360058500912</v>
       </c>
     </row>
     <row r="119">
@@ -2454,16 +2454,16 @@
         <v>118</v>
       </c>
       <c r="B119" t="n">
-        <v>14.41117936323041</v>
+        <v>14.4423258950333</v>
       </c>
       <c r="C119" t="n">
-        <v>8.731595464955179</v>
+        <v>9.003127657712449</v>
       </c>
       <c r="D119" t="n">
-        <v>0.3390302942935054</v>
+        <v>0.3343226127597974</v>
       </c>
       <c r="E119" t="n">
-        <v>0.7336434897640502</v>
+        <v>0.7180664249217513</v>
       </c>
     </row>
     <row r="120">
@@ -2471,16 +2471,16 @@
         <v>119</v>
       </c>
       <c r="B120" t="n">
-        <v>13.09950261472997</v>
+        <v>13.15090852689591</v>
       </c>
       <c r="C120" t="n">
-        <v>8.77297271764143</v>
+        <v>9.061077560824844</v>
       </c>
       <c r="D120" t="n">
-        <v>0.386218412213602</v>
+        <v>0.3773142398762594</v>
       </c>
       <c r="E120" t="n">
-        <v>0.7041406676571433</v>
+        <v>0.6861575451685912</v>
       </c>
     </row>
     <row r="121">
@@ -2488,16 +2488,16 @@
         <v>120</v>
       </c>
       <c r="B121" t="n">
-        <v>13.25030481120783</v>
+        <v>13.24235964850802</v>
       </c>
       <c r="C121" t="n">
-        <v>8.902092715521817</v>
+        <v>9.054224530999116</v>
       </c>
       <c r="D121" t="n">
-        <v>0.3348829964620833</v>
+        <v>0.3317926041860426</v>
       </c>
       <c r="E121" t="n">
-        <v>0.6879399977047822</v>
+        <v>0.6753769875564435</v>
       </c>
     </row>
     <row r="122">
@@ -2505,16 +2505,16 @@
         <v>121</v>
       </c>
       <c r="B122" t="n">
-        <v>12.18851841820562</v>
+        <v>12.19844553527124</v>
       </c>
       <c r="C122" t="n">
-        <v>8.548110046151464</v>
+        <v>8.71066501534064</v>
       </c>
       <c r="D122" t="n">
-        <v>0.4007756798324176</v>
+        <v>0.3974319884071541</v>
       </c>
       <c r="E122" t="n">
-        <v>0.7063630270796731</v>
+        <v>0.6953449407208173</v>
       </c>
     </row>
     <row r="123">
@@ -2522,16 +2522,16 @@
         <v>122</v>
       </c>
       <c r="B123" t="n">
-        <v>14.30344852783722</v>
+        <v>14.19741673666496</v>
       </c>
       <c r="C123" t="n">
-        <v>8.988603729460317</v>
+        <v>9.113814791223465</v>
       </c>
       <c r="D123" t="n">
-        <v>0.3614808880521184</v>
+        <v>0.3680671272058376</v>
       </c>
       <c r="E123" t="n">
-        <v>0.7208384380628995</v>
+        <v>0.7151129783671761</v>
       </c>
     </row>
     <row r="124">
@@ -2539,16 +2539,16 @@
         <v>123</v>
       </c>
       <c r="B124" t="n">
-        <v>12.23779853101845</v>
+        <v>12.29984283909568</v>
       </c>
       <c r="C124" t="n">
-        <v>8.447571814119192</v>
+        <v>8.613564557249273</v>
       </c>
       <c r="D124" t="n">
-        <v>0.3646291569969993</v>
+        <v>0.3579645195109207</v>
       </c>
       <c r="E124" t="n">
-        <v>0.7250859496138062</v>
+        <v>0.7106126251536629</v>
       </c>
     </row>
     <row r="125">
@@ -2556,16 +2556,16 @@
         <v>124</v>
       </c>
       <c r="B125" t="n">
-        <v>14.83939152971723</v>
+        <v>14.91531802517227</v>
       </c>
       <c r="C125" t="n">
-        <v>9.608080862679667</v>
+        <v>9.827615292241665</v>
       </c>
       <c r="D125" t="n">
-        <v>0.2095868600307809</v>
+        <v>0.2033942286991413</v>
       </c>
       <c r="E125" t="n">
-        <v>0.6146882204268043</v>
+        <v>0.5994680514673045</v>
       </c>
     </row>
     <row r="126">
@@ -2573,16 +2573,16 @@
         <v>125</v>
       </c>
       <c r="B126" t="n">
-        <v>12.56787661091379</v>
+        <v>12.61222310584169</v>
       </c>
       <c r="C126" t="n">
-        <v>9.222070294169697</v>
+        <v>9.42731536333819</v>
       </c>
       <c r="D126" t="n">
-        <v>0.3440333218664561</v>
+        <v>0.3383797834946347</v>
       </c>
       <c r="E126" t="n">
-        <v>0.6752814505431342</v>
+        <v>0.6595640826465454</v>
       </c>
     </row>
     <row r="127">
@@ -2590,16 +2590,16 @@
         <v>126</v>
       </c>
       <c r="B127" t="n">
-        <v>13.64507173130755</v>
+        <v>13.65670835736664</v>
       </c>
       <c r="C127" t="n">
-        <v>9.543244582129322</v>
+        <v>9.644464739059689</v>
       </c>
       <c r="D127" t="n">
-        <v>0.278055211929077</v>
+        <v>0.2764864252349508</v>
       </c>
       <c r="E127" t="n">
-        <v>0.6405429293839386</v>
+        <v>0.6286019055052596</v>
       </c>
     </row>
     <row r="128">
@@ -2607,16 +2607,16 @@
         <v>127</v>
       </c>
       <c r="B128" t="n">
-        <v>14.84271956187985</v>
+        <v>14.79380666977612</v>
       </c>
       <c r="C128" t="n">
-        <v>8.360324298208866</v>
+        <v>8.557393796272688</v>
       </c>
       <c r="D128" t="n">
-        <v>0.343124473054641</v>
+        <v>0.3421751866689823</v>
       </c>
       <c r="E128" t="n">
-        <v>0.7452616505788108</v>
+        <v>0.7315623558427196</v>
       </c>
     </row>
     <row r="129">
@@ -2624,16 +2624,16 @@
         <v>128</v>
       </c>
       <c r="B129" t="n">
-        <v>13.78346623400961</v>
+        <v>13.80097731677846</v>
       </c>
       <c r="C129" t="n">
-        <v>8.463703153979063</v>
+        <v>8.675258914786573</v>
       </c>
       <c r="D129" t="n">
-        <v>0.3685158013149685</v>
+        <v>0.3634070975982316</v>
       </c>
       <c r="E129" t="n">
-        <v>0.7367651855584241</v>
+        <v>0.7209410211676569</v>
       </c>
     </row>
     <row r="130">
@@ -2641,16 +2641,16 @@
         <v>129</v>
       </c>
       <c r="B130" t="n">
-        <v>12.9587983607371</v>
+        <v>12.91226798411157</v>
       </c>
       <c r="C130" t="n">
-        <v>8.921581677913704</v>
+        <v>9.09765799924774</v>
       </c>
       <c r="D130" t="n">
-        <v>0.4269100424334789</v>
+        <v>0.423324032941976</v>
       </c>
       <c r="E130" t="n">
-        <v>0.7106130054619877</v>
+        <v>0.6948622482488962</v>
       </c>
     </row>
     <row r="131">
@@ -2658,16 +2658,16 @@
         <v>130</v>
       </c>
       <c r="B131" t="n">
-        <v>13.2353492230646</v>
+        <v>13.23957111617215</v>
       </c>
       <c r="C131" t="n">
-        <v>9.101820024645283</v>
+        <v>9.317588538266291</v>
       </c>
       <c r="D131" t="n">
-        <v>0.3107479919692376</v>
+        <v>0.3064750841497359</v>
       </c>
       <c r="E131" t="n">
-        <v>0.6837628134602199</v>
+        <v>0.6667944065923673</v>
       </c>
     </row>
     <row r="132">
@@ -2675,16 +2675,16 @@
         <v>131</v>
       </c>
       <c r="B132" t="n">
-        <v>13.34299412654345</v>
+        <v>13.34702087354808</v>
       </c>
       <c r="C132" t="n">
-        <v>9.175809215248167</v>
+        <v>9.316797645190819</v>
       </c>
       <c r="D132" t="n">
-        <v>0.3807987779011104</v>
+        <v>0.3791491950702284</v>
       </c>
       <c r="E132" t="n">
-        <v>0.6843505960013681</v>
+        <v>0.6724259860991417</v>
       </c>
     </row>
     <row r="133">
@@ -2692,16 +2692,16 @@
         <v>132</v>
       </c>
       <c r="B133" t="n">
-        <v>13.90527395926061</v>
+        <v>13.89901773527899</v>
       </c>
       <c r="C133" t="n">
-        <v>8.705143878225147</v>
+        <v>8.893157612601916</v>
       </c>
       <c r="D133" t="n">
-        <v>0.2689828529765743</v>
+        <v>0.2683287171881197</v>
       </c>
       <c r="E133" t="n">
-        <v>0.6905451297478754</v>
+        <v>0.6802776726772385</v>
       </c>
     </row>
     <row r="134">
@@ -2709,16 +2709,16 @@
         <v>133</v>
       </c>
       <c r="B134" t="n">
-        <v>12.98623823673474</v>
+        <v>12.95945602141412</v>
       </c>
       <c r="C134" t="n">
-        <v>8.083259692762507</v>
+        <v>8.252643026595596</v>
       </c>
       <c r="D134" t="n">
-        <v>0.397319179375088</v>
+        <v>0.3953417959731057</v>
       </c>
       <c r="E134" t="n">
-        <v>0.7563425607777695</v>
+        <v>0.7427385237157742</v>
       </c>
     </row>
     <row r="135">
@@ -2726,16 +2726,16 @@
         <v>134</v>
       </c>
       <c r="B135" t="n">
-        <v>13.91345863550626</v>
+        <v>13.95711496682599</v>
       </c>
       <c r="C135" t="n">
-        <v>10.07976282277317</v>
+        <v>10.28737478177287</v>
       </c>
       <c r="D135" t="n">
-        <v>0.2808273447494668</v>
+        <v>0.2686496849297743</v>
       </c>
       <c r="E135" t="n">
-        <v>0.6154293373168803</v>
+        <v>0.5946594873724999</v>
       </c>
     </row>
     <row r="136">
@@ -2743,16 +2743,16 @@
         <v>135</v>
       </c>
       <c r="B136" t="n">
-        <v>13.13066665439652</v>
+        <v>13.08658156145968</v>
       </c>
       <c r="C136" t="n">
-        <v>8.336868715367247</v>
+        <v>8.572202772465674</v>
       </c>
       <c r="D136" t="n">
-        <v>0.4009179598947499</v>
+        <v>0.4000268583646767</v>
       </c>
       <c r="E136" t="n">
-        <v>0.7604065867490679</v>
+        <v>0.7469096958738167</v>
       </c>
     </row>
     <row r="137">
@@ -2760,16 +2760,16 @@
         <v>136</v>
       </c>
       <c r="B137" t="n">
-        <v>14.19541128759562</v>
+        <v>14.20850634697859</v>
       </c>
       <c r="C137" t="n">
-        <v>9.970200736953345</v>
+        <v>10.15116250672729</v>
       </c>
       <c r="D137" t="n">
-        <v>0.1995061800534021</v>
+        <v>0.1925641037599</v>
       </c>
       <c r="E137" t="n">
-        <v>0.5902990767384599</v>
+        <v>0.5717833793146478</v>
       </c>
     </row>
     <row r="138">
@@ -2777,16 +2777,16 @@
         <v>137</v>
       </c>
       <c r="B138" t="n">
-        <v>12.51855194298689</v>
+        <v>12.43849380678028</v>
       </c>
       <c r="C138" t="n">
-        <v>9.140276153095225</v>
+        <v>9.207693107443486</v>
       </c>
       <c r="D138" t="n">
-        <v>0.3743861916917486</v>
+        <v>0.3777344714966399</v>
       </c>
       <c r="E138" t="n">
-        <v>0.6869726420214335</v>
+        <v>0.6786228003021375</v>
       </c>
     </row>
     <row r="139">
@@ -2794,16 +2794,16 @@
         <v>138</v>
       </c>
       <c r="B139" t="n">
-        <v>13.58719493313845</v>
+        <v>13.69696468561828</v>
       </c>
       <c r="C139" t="n">
-        <v>8.746907635062206</v>
+        <v>9.030625946938159</v>
       </c>
       <c r="D139" t="n">
-        <v>0.3520789329063276</v>
+        <v>0.3444233560720429</v>
       </c>
       <c r="E139" t="n">
-        <v>0.7127506834317303</v>
+        <v>0.6934128348006647</v>
       </c>
     </row>
     <row r="140">
@@ -2811,16 +2811,16 @@
         <v>139</v>
       </c>
       <c r="B140" t="n">
-        <v>14.32171121278638</v>
+        <v>14.34807307462465</v>
       </c>
       <c r="C140" t="n">
-        <v>8.171603450986503</v>
+        <v>8.347352075361645</v>
       </c>
       <c r="D140" t="n">
-        <v>0.3979100347639485</v>
+        <v>0.39424864556745</v>
       </c>
       <c r="E140" t="n">
-        <v>0.7816833586253767</v>
+        <v>0.7697208653087848</v>
       </c>
     </row>
     <row r="141">
@@ -2828,16 +2828,16 @@
         <v>140</v>
       </c>
       <c r="B141" t="n">
-        <v>14.05005620145863</v>
+        <v>14.08408767840021</v>
       </c>
       <c r="C141" t="n">
-        <v>9.668309071517262</v>
+        <v>9.864334950338884</v>
       </c>
       <c r="D141" t="n">
-        <v>0.2309962068716194</v>
+        <v>0.2236620281855944</v>
       </c>
       <c r="E141" t="n">
-        <v>0.608154707342329</v>
+        <v>0.5902104867642686</v>
       </c>
     </row>
     <row r="142">
@@ -2845,16 +2845,16 @@
         <v>141</v>
       </c>
       <c r="B142" t="n">
-        <v>12.78375796238993</v>
+        <v>12.71373006508028</v>
       </c>
       <c r="C142" t="n">
-        <v>8.647094461303578</v>
+        <v>8.792552865366638</v>
       </c>
       <c r="D142" t="n">
-        <v>0.4030480653272639</v>
+        <v>0.3992534723011071</v>
       </c>
       <c r="E142" t="n">
-        <v>0.7399507603321278</v>
+        <v>0.7270747820459332</v>
       </c>
     </row>
     <row r="143">
@@ -2862,16 +2862,16 @@
         <v>142</v>
       </c>
       <c r="B143" t="n">
-        <v>12.23633597868911</v>
+        <v>12.19425680209246</v>
       </c>
       <c r="C143" t="n">
-        <v>8.513124682638834</v>
+        <v>8.562405697790201</v>
       </c>
       <c r="D143" t="n">
-        <v>0.423982281237798</v>
+        <v>0.4254704891030687</v>
       </c>
       <c r="E143" t="n">
-        <v>0.715118235253474</v>
+        <v>0.7056730190628894</v>
       </c>
     </row>
     <row r="144">
@@ -2879,16 +2879,16 @@
         <v>143</v>
       </c>
       <c r="B144" t="n">
-        <v>14.6044422270581</v>
+        <v>14.61810249903126</v>
       </c>
       <c r="C144" t="n">
-        <v>9.554499123408684</v>
+        <v>9.765374267678713</v>
       </c>
       <c r="D144" t="n">
-        <v>0.2972753043041342</v>
+        <v>0.297071822007912</v>
       </c>
       <c r="E144" t="n">
-        <v>0.6825216873216848</v>
+        <v>0.6695776792187051</v>
       </c>
     </row>
     <row r="145">
@@ -2896,16 +2896,16 @@
         <v>144</v>
       </c>
       <c r="B145" t="n">
-        <v>13.64563431942494</v>
+        <v>13.71518603880695</v>
       </c>
       <c r="C145" t="n">
-        <v>8.7754962989407</v>
+        <v>9.006550802494139</v>
       </c>
       <c r="D145" t="n">
-        <v>0.3171752334582965</v>
+        <v>0.3082209847960586</v>
       </c>
       <c r="E145" t="n">
-        <v>0.6787270176003255</v>
+        <v>0.6603525204292837</v>
       </c>
     </row>
     <row r="146">
@@ -2913,16 +2913,16 @@
         <v>145</v>
       </c>
       <c r="B146" t="n">
-        <v>14.79041491998078</v>
+        <v>14.8421624153665</v>
       </c>
       <c r="C146" t="n">
-        <v>9.739394732732201</v>
+        <v>9.990502518975928</v>
       </c>
       <c r="D146" t="n">
-        <v>0.2645107925726514</v>
+        <v>0.2582357377324577</v>
       </c>
       <c r="E146" t="n">
-        <v>0.6602339488301836</v>
+        <v>0.6418925672397465</v>
       </c>
     </row>
     <row r="147">
@@ -2930,16 +2930,16 @@
         <v>146</v>
       </c>
       <c r="B147" t="n">
-        <v>12.87678491401503</v>
+        <v>12.94544796831913</v>
       </c>
       <c r="C147" t="n">
-        <v>8.93828553037468</v>
+        <v>9.183882382660675</v>
       </c>
       <c r="D147" t="n">
-        <v>0.356768847780924</v>
+        <v>0.3472065280382097</v>
       </c>
       <c r="E147" t="n">
-        <v>0.7006385029834505</v>
+        <v>0.6829215439826353</v>
       </c>
     </row>
     <row r="148">
@@ -2947,16 +2947,16 @@
         <v>147</v>
       </c>
       <c r="B148" t="n">
-        <v>13.51089130816792</v>
+        <v>13.50345946001707</v>
       </c>
       <c r="C148" t="n">
-        <v>8.29609894686142</v>
+        <v>8.475808729406305</v>
       </c>
       <c r="D148" t="n">
-        <v>0.4064048010901123</v>
+        <v>0.4056440506283255</v>
       </c>
       <c r="E148" t="n">
-        <v>0.7511250049546203</v>
+        <v>0.738677362999872</v>
       </c>
     </row>
     <row r="149">
@@ -2964,16 +2964,16 @@
         <v>148</v>
       </c>
       <c r="B149" t="n">
-        <v>13.78946212422023</v>
+        <v>13.79998151698362</v>
       </c>
       <c r="C149" t="n">
-        <v>8.883103304424225</v>
+        <v>9.055946298920979</v>
       </c>
       <c r="D149" t="n">
-        <v>0.3242540315343591</v>
+        <v>0.3193122388213464</v>
       </c>
       <c r="E149" t="n">
-        <v>0.6944076524255932</v>
+        <v>0.6824756216264304</v>
       </c>
     </row>
     <row r="150">
@@ -2981,16 +2981,16 @@
         <v>149</v>
       </c>
       <c r="B150" t="n">
-        <v>12.72465676381784</v>
+        <v>12.73455112761325</v>
       </c>
       <c r="C150" t="n">
-        <v>8.241408820211525</v>
+        <v>8.469851153329785</v>
       </c>
       <c r="D150" t="n">
-        <v>0.3802597865694812</v>
+        <v>0.3787592825488129</v>
       </c>
       <c r="E150" t="n">
-        <v>0.7233529530497895</v>
+        <v>0.7097192633877569</v>
       </c>
     </row>
     <row r="151">
@@ -2998,16 +2998,16 @@
         <v>150</v>
       </c>
       <c r="B151" t="n">
-        <v>13.25134282091831</v>
+        <v>13.19389952845731</v>
       </c>
       <c r="C151" t="n">
-        <v>9.016336272733302</v>
+        <v>9.125629959450171</v>
       </c>
       <c r="D151" t="n">
-        <v>0.3239465956030231</v>
+        <v>0.3273852147187268</v>
       </c>
       <c r="E151" t="n">
-        <v>0.6665204853823622</v>
+        <v>0.6574465838523219</v>
       </c>
     </row>
     <row r="152">
@@ -3015,16 +3015,16 @@
         <v>151</v>
       </c>
       <c r="B152" t="n">
-        <v>13.62126269144036</v>
+        <v>13.56859702165247</v>
       </c>
       <c r="C152" t="n">
-        <v>8.638453708300045</v>
+        <v>8.780766699387334</v>
       </c>
       <c r="D152" t="n">
-        <v>0.3513192557361782</v>
+        <v>0.3476966624379418</v>
       </c>
       <c r="E152" t="n">
-        <v>0.7233453792679978</v>
+        <v>0.7127268011778071</v>
       </c>
     </row>
     <row r="153">
@@ -3032,16 +3032,16 @@
         <v>152</v>
       </c>
       <c r="B153" t="n">
-        <v>13.51828871295816</v>
+        <v>13.50484721433936</v>
       </c>
       <c r="C153" t="n">
-        <v>8.37388944625121</v>
+        <v>8.554320701573396</v>
       </c>
       <c r="D153" t="n">
-        <v>0.3718080268576947</v>
+        <v>0.3727663367778826</v>
       </c>
       <c r="E153" t="n">
-        <v>0.7322698181988593</v>
+        <v>0.7213916321030349</v>
       </c>
     </row>
     <row r="154">
@@ -3049,16 +3049,16 @@
         <v>153</v>
       </c>
       <c r="B154" t="n">
-        <v>15.05777957340686</v>
+        <v>15.04942231554375</v>
       </c>
       <c r="C154" t="n">
-        <v>9.582304515746882</v>
+        <v>9.811114631938354</v>
       </c>
       <c r="D154" t="n">
-        <v>0.2660998668453115</v>
+        <v>0.2626815544607883</v>
       </c>
       <c r="E154" t="n">
-        <v>0.6929216161578826</v>
+        <v>0.6763903169057714</v>
       </c>
     </row>
     <row r="155">
@@ -3066,16 +3066,16 @@
         <v>154</v>
       </c>
       <c r="B155" t="n">
-        <v>12.21373059115742</v>
+        <v>12.29631716319774</v>
       </c>
       <c r="C155" t="n">
-        <v>9.195160666954811</v>
+        <v>9.428967270620811</v>
       </c>
       <c r="D155" t="n">
-        <v>0.3948602091891579</v>
+        <v>0.3832887517083982</v>
       </c>
       <c r="E155" t="n">
-        <v>0.681035577857688</v>
+        <v>0.6600322599787405</v>
       </c>
     </row>
     <row r="156">
@@ -3083,16 +3083,16 @@
         <v>155</v>
       </c>
       <c r="B156" t="n">
-        <v>13.57020467600771</v>
+        <v>13.60497689145934</v>
       </c>
       <c r="C156" t="n">
-        <v>9.408342926884233</v>
+        <v>9.633763571181152</v>
       </c>
       <c r="D156" t="n">
-        <v>0.3086013490341878</v>
+        <v>0.3032368461862296</v>
       </c>
       <c r="E156" t="n">
-        <v>0.6506495990745633</v>
+        <v>0.6331681747478468</v>
       </c>
     </row>
     <row r="157">
@@ -3100,16 +3100,16 @@
         <v>156</v>
       </c>
       <c r="B157" t="n">
-        <v>14.18951294666261</v>
+        <v>14.19097975144342</v>
       </c>
       <c r="C157" t="n">
-        <v>9.639086333214349</v>
+        <v>9.821131830587195</v>
       </c>
       <c r="D157" t="n">
-        <v>0.2634823704850633</v>
+        <v>0.2657651139611896</v>
       </c>
       <c r="E157" t="n">
-        <v>0.6501462614379158</v>
+        <v>0.6393462450840114</v>
       </c>
     </row>
     <row r="158">
@@ -3117,16 +3117,16 @@
         <v>157</v>
       </c>
       <c r="B158" t="n">
-        <v>13.68012384855373</v>
+        <v>13.63289772958539</v>
       </c>
       <c r="C158" t="n">
-        <v>9.254892083626277</v>
+        <v>9.458749054984816</v>
       </c>
       <c r="D158" t="n">
-        <v>0.3061236883371075</v>
+        <v>0.3050066354356372</v>
       </c>
       <c r="E158" t="n">
-        <v>0.6622132948187004</v>
+        <v>0.6470177835551763</v>
       </c>
     </row>
     <row r="159">
@@ -3134,16 +3134,16 @@
         <v>158</v>
       </c>
       <c r="B159" t="n">
-        <v>13.05396763563213</v>
+        <v>13.05395418207554</v>
       </c>
       <c r="C159" t="n">
-        <v>9.775449012128981</v>
+        <v>9.984629311027293</v>
       </c>
       <c r="D159" t="n">
-        <v>0.3237846745158316</v>
+        <v>0.3185056432964799</v>
       </c>
       <c r="E159" t="n">
-        <v>0.6338769102584001</v>
+        <v>0.617563292879725</v>
       </c>
     </row>
     <row r="160">
@@ -3151,16 +3151,16 @@
         <v>159</v>
       </c>
       <c r="B160" t="n">
-        <v>12.93571127082403</v>
+        <v>12.95487069305706</v>
       </c>
       <c r="C160" t="n">
-        <v>7.606892595851606</v>
+        <v>7.760360467833357</v>
       </c>
       <c r="D160" t="n">
-        <v>0.4084561352022649</v>
+        <v>0.4064295103219662</v>
       </c>
       <c r="E160" t="n">
-        <v>0.7598841673924053</v>
+        <v>0.7514765371058042</v>
       </c>
     </row>
     <row r="161">
@@ -3168,16 +3168,16 @@
         <v>160</v>
       </c>
       <c r="B161" t="n">
-        <v>12.92616973789472</v>
+        <v>12.92994427878389</v>
       </c>
       <c r="C161" t="n">
-        <v>7.835708830540765</v>
+        <v>7.954007308273514</v>
       </c>
       <c r="D161" t="n">
-        <v>0.4288184189628155</v>
+        <v>0.4265270148712065</v>
       </c>
       <c r="E161" t="n">
-        <v>0.7757711945283265</v>
+        <v>0.7660062887924983</v>
       </c>
     </row>
     <row r="162">
@@ -3185,16 +3185,16 @@
         <v>161</v>
       </c>
       <c r="B162" t="n">
-        <v>12.17750181300133</v>
+        <v>12.14278657749174</v>
       </c>
       <c r="C162" t="n">
-        <v>8.216127216747562</v>
+        <v>8.357116911598579</v>
       </c>
       <c r="D162" t="n">
-        <v>0.4117753733132353</v>
+        <v>0.4097157292046647</v>
       </c>
       <c r="E162" t="n">
-        <v>0.7355928759344132</v>
+        <v>0.7238298782369652</v>
       </c>
     </row>
     <row r="163">
@@ -3202,16 +3202,16 @@
         <v>162</v>
       </c>
       <c r="B163" t="n">
-        <v>13.30648146496877</v>
+        <v>13.3839869448748</v>
       </c>
       <c r="C163" t="n">
-        <v>9.442505590570692</v>
+        <v>9.702277883013945</v>
       </c>
       <c r="D163" t="n">
-        <v>0.3097342734585161</v>
+        <v>0.3009889250619017</v>
       </c>
       <c r="E163" t="n">
-        <v>0.6509027753539448</v>
+        <v>0.6291243620783675</v>
       </c>
     </row>
     <row r="164">
@@ -3219,16 +3219,16 @@
         <v>163</v>
       </c>
       <c r="B164" t="n">
-        <v>12.59309332843524</v>
+        <v>12.62233486392376</v>
       </c>
       <c r="C164" t="n">
-        <v>8.757289590266005</v>
+        <v>8.913786493832621</v>
       </c>
       <c r="D164" t="n">
-        <v>0.388446753366715</v>
+        <v>0.3852536517324392</v>
       </c>
       <c r="E164" t="n">
-        <v>0.6950893881936462</v>
+        <v>0.6814882395704953</v>
       </c>
     </row>
     <row r="165">
@@ -3236,16 +3236,16 @@
         <v>164</v>
       </c>
       <c r="B165" t="n">
-        <v>14.18558694367951</v>
+        <v>14.16312379485646</v>
       </c>
       <c r="C165" t="n">
-        <v>9.36694565914423</v>
+        <v>9.544119276331823</v>
       </c>
       <c r="D165" t="n">
-        <v>0.3028014289805026</v>
+        <v>0.2996483165195862</v>
       </c>
       <c r="E165" t="n">
-        <v>0.7096380864552939</v>
+        <v>0.6969384745320645</v>
       </c>
     </row>
     <row r="166">
@@ -3253,16 +3253,16 @@
         <v>165</v>
       </c>
       <c r="B166" t="n">
-        <v>14.32797176430828</v>
+        <v>14.25398131891564</v>
       </c>
       <c r="C166" t="n">
-        <v>9.17883825888001</v>
+        <v>9.28298556590048</v>
       </c>
       <c r="D166" t="n">
-        <v>0.3421652902194584</v>
+        <v>0.3465410647853168</v>
       </c>
       <c r="E166" t="n">
-        <v>0.7058997898952865</v>
+        <v>0.6998405721256675</v>
       </c>
     </row>
     <row r="167">
@@ -3270,16 +3270,16 @@
         <v>166</v>
       </c>
       <c r="B167" t="n">
-        <v>14.06558934266738</v>
+        <v>14.04932409976307</v>
       </c>
       <c r="C167" t="n">
-        <v>9.06347761482337</v>
+        <v>9.260644700282437</v>
       </c>
       <c r="D167" t="n">
-        <v>0.266921591683225</v>
+        <v>0.2673710311452261</v>
       </c>
       <c r="E167" t="n">
-        <v>0.6595074712744329</v>
+        <v>0.6458874288573306</v>
       </c>
     </row>
     <row r="168">
@@ -3287,16 +3287,16 @@
         <v>167</v>
       </c>
       <c r="B168" t="n">
-        <v>13.15643985580159</v>
+        <v>13.13581778878203</v>
       </c>
       <c r="C168" t="n">
-        <v>8.793839531923327</v>
+        <v>9.024830400526245</v>
       </c>
       <c r="D168" t="n">
-        <v>0.3861750995417997</v>
+        <v>0.3840763367077153</v>
       </c>
       <c r="E168" t="n">
-        <v>0.7004520458040389</v>
+        <v>0.6854708977347198</v>
       </c>
     </row>
     <row r="169">
@@ -3304,16 +3304,16 @@
         <v>168</v>
       </c>
       <c r="B169" t="n">
-        <v>13.67885428770558</v>
+        <v>13.68777786717702</v>
       </c>
       <c r="C169" t="n">
-        <v>8.016401766552265</v>
+        <v>8.208562714426035</v>
       </c>
       <c r="D169" t="n">
-        <v>0.365845793812132</v>
+        <v>0.3591285036765463</v>
       </c>
       <c r="E169" t="n">
-        <v>0.7476277779748278</v>
+        <v>0.7328253211060138</v>
       </c>
     </row>
     <row r="170">
@@ -3321,16 +3321,16 @@
         <v>169</v>
       </c>
       <c r="B170" t="n">
-        <v>13.80677805365043</v>
+        <v>13.80915008655979</v>
       </c>
       <c r="C170" t="n">
-        <v>9.21916606990491</v>
+        <v>9.376322789516058</v>
       </c>
       <c r="D170" t="n">
-        <v>0.3049347345865628</v>
+        <v>0.3053816046362429</v>
       </c>
       <c r="E170" t="n">
-        <v>0.6537665825782882</v>
+        <v>0.64189485748256</v>
       </c>
     </row>
     <row r="171">
@@ -3338,16 +3338,16 @@
         <v>170</v>
       </c>
       <c r="B171" t="n">
-        <v>13.52656119296089</v>
+        <v>13.64669177872385</v>
       </c>
       <c r="C171" t="n">
-        <v>8.973516942653616</v>
+        <v>9.228021076356196</v>
       </c>
       <c r="D171" t="n">
-        <v>0.3294242546914292</v>
+        <v>0.3165802003602121</v>
       </c>
       <c r="E171" t="n">
-        <v>0.7004573735232658</v>
+        <v>0.6810661582661404</v>
       </c>
     </row>
     <row r="172">
@@ -3355,16 +3355,16 @@
         <v>171</v>
       </c>
       <c r="B172" t="n">
-        <v>14.06380227461869</v>
+        <v>14.05373536430673</v>
       </c>
       <c r="C172" t="n">
-        <v>8.672061323135976</v>
+        <v>8.86542026885232</v>
       </c>
       <c r="D172" t="n">
-        <v>0.3215995773127706</v>
+        <v>0.3207518540423876</v>
       </c>
       <c r="E172" t="n">
-        <v>0.7081880594438954</v>
+        <v>0.6950519879656798</v>
       </c>
     </row>
     <row r="173">
@@ -3372,16 +3372,16 @@
         <v>172</v>
       </c>
       <c r="B173" t="n">
-        <v>14.04490485168483</v>
+        <v>14.06622065042677</v>
       </c>
       <c r="C173" t="n">
-        <v>9.668471601014964</v>
+        <v>9.905013529633441</v>
       </c>
       <c r="D173" t="n">
-        <v>0.2725140956530099</v>
+        <v>0.2645515122731715</v>
       </c>
       <c r="E173" t="n">
-        <v>0.6445422255032671</v>
+        <v>0.6248210642929454</v>
       </c>
     </row>
     <row r="174">
@@ -3389,16 +3389,16 @@
         <v>173</v>
       </c>
       <c r="B174" t="n">
-        <v>14.28440066792877</v>
+        <v>14.24456811165806</v>
       </c>
       <c r="C174" t="n">
-        <v>9.236172424628275</v>
+        <v>9.401129404380269</v>
       </c>
       <c r="D174" t="n">
-        <v>0.3261931421746166</v>
+        <v>0.3251148700496463</v>
       </c>
       <c r="E174" t="n">
-        <v>0.7192083521219628</v>
+        <v>0.7063509775412349</v>
       </c>
     </row>
     <row r="175">
@@ -3406,16 +3406,16 @@
         <v>174</v>
       </c>
       <c r="B175" t="n">
-        <v>14.00642819188104</v>
+        <v>14.02003072598968</v>
       </c>
       <c r="C175" t="n">
-        <v>9.215113404847495</v>
+        <v>9.398590727054208</v>
       </c>
       <c r="D175" t="n">
-        <v>0.3623490905978627</v>
+        <v>0.3606083733119152</v>
       </c>
       <c r="E175" t="n">
-        <v>0.7024959480322506</v>
+        <v>0.6876740919142009</v>
       </c>
     </row>
     <row r="176">
@@ -3423,16 +3423,16 @@
         <v>175</v>
       </c>
       <c r="B176" t="n">
-        <v>14.06874149635382</v>
+        <v>14.08561047287211</v>
       </c>
       <c r="C176" t="n">
-        <v>10.3257719320716</v>
+        <v>10.57107488960233</v>
       </c>
       <c r="D176" t="n">
-        <v>0.2102225529766827</v>
+        <v>0.2059441775476066</v>
       </c>
       <c r="E176" t="n">
-        <v>0.6001125085424641</v>
+        <v>0.5810370717400163</v>
       </c>
     </row>
     <row r="177">
@@ -3440,16 +3440,16 @@
         <v>176</v>
       </c>
       <c r="B177" t="n">
-        <v>13.53654486580155</v>
+        <v>13.57122942971699</v>
       </c>
       <c r="C177" t="n">
-        <v>8.630780803116116</v>
+        <v>8.794587169618421</v>
       </c>
       <c r="D177" t="n">
-        <v>0.3803874199613476</v>
+        <v>0.3775830996113543</v>
       </c>
       <c r="E177" t="n">
-        <v>0.7301989920243854</v>
+        <v>0.7182712243798619</v>
       </c>
     </row>
     <row r="178">
@@ -3457,16 +3457,16 @@
         <v>177</v>
       </c>
       <c r="B178" t="n">
-        <v>13.17567727398371</v>
+        <v>13.15607150624133</v>
       </c>
       <c r="C178" t="n">
-        <v>9.145725298160283</v>
+        <v>9.285931631914423</v>
       </c>
       <c r="D178" t="n">
-        <v>0.3155383604122705</v>
+        <v>0.3185628814969074</v>
       </c>
       <c r="E178" t="n">
-        <v>0.6635818690167465</v>
+        <v>0.6563722134209566</v>
       </c>
     </row>
     <row r="179">
@@ -3474,16 +3474,16 @@
         <v>178</v>
       </c>
       <c r="B179" t="n">
-        <v>12.77547952424954</v>
+        <v>12.84774124124904</v>
       </c>
       <c r="C179" t="n">
-        <v>8.692067305400476</v>
+        <v>8.90750207248837</v>
       </c>
       <c r="D179" t="n">
-        <v>0.3656117797518367</v>
+        <v>0.3540652184618336</v>
       </c>
       <c r="E179" t="n">
-        <v>0.6827034712037972</v>
+        <v>0.6633997217971412</v>
       </c>
     </row>
     <row r="180">
@@ -3491,16 +3491,16 @@
         <v>179</v>
       </c>
       <c r="B180" t="n">
-        <v>11.99702579824354</v>
+        <v>12.08261848314777</v>
       </c>
       <c r="C180" t="n">
-        <v>7.948059206147067</v>
+        <v>8.141674140238878</v>
       </c>
       <c r="D180" t="n">
-        <v>0.4813332314469132</v>
+        <v>0.4748720294253094</v>
       </c>
       <c r="E180" t="n">
-        <v>0.7648253254939068</v>
+        <v>0.7529624773139325</v>
       </c>
     </row>
     <row r="181">
@@ -3508,16 +3508,16 @@
         <v>180</v>
       </c>
       <c r="B181" t="n">
-        <v>13.15703142770508</v>
+        <v>13.15928898130396</v>
       </c>
       <c r="C181" t="n">
-        <v>8.04954044468939</v>
+        <v>8.192448944609001</v>
       </c>
       <c r="D181" t="n">
-        <v>0.3473550186100232</v>
+        <v>0.3442952026044996</v>
       </c>
       <c r="E181" t="n">
-        <v>0.7281169370536048</v>
+        <v>0.7166104863575586</v>
       </c>
     </row>
     <row r="182">
@@ -3525,16 +3525,16 @@
         <v>181</v>
       </c>
       <c r="B182" t="n">
-        <v>14.79508939625643</v>
+        <v>14.87768770294841</v>
       </c>
       <c r="C182" t="n">
-        <v>10.12485705761951</v>
+        <v>10.30179339638131</v>
       </c>
       <c r="D182" t="n">
-        <v>0.2094003828128554</v>
+        <v>0.202059746767572</v>
       </c>
       <c r="E182" t="n">
-        <v>0.6444050213294681</v>
+        <v>0.6281214093584575</v>
       </c>
     </row>
     <row r="183">
@@ -3542,16 +3542,16 @@
         <v>182</v>
       </c>
       <c r="B183" t="n">
-        <v>13.77415971004167</v>
+        <v>13.78871726403522</v>
       </c>
       <c r="C183" t="n">
-        <v>8.843396912129046</v>
+        <v>8.978492728856091</v>
       </c>
       <c r="D183" t="n">
-        <v>0.3429408263119097</v>
+        <v>0.3415982390506792</v>
       </c>
       <c r="E183" t="n">
-        <v>0.7166973567057805</v>
+        <v>0.7039706719997995</v>
       </c>
     </row>
     <row r="184">
@@ -3559,16 +3559,16 @@
         <v>183</v>
       </c>
       <c r="B184" t="n">
-        <v>13.27392141279096</v>
+        <v>13.33113552387126</v>
       </c>
       <c r="C184" t="n">
-        <v>9.042238382755407</v>
+        <v>9.215187840810941</v>
       </c>
       <c r="D184" t="n">
-        <v>0.2945409672944999</v>
+        <v>0.2864743205532784</v>
       </c>
       <c r="E184" t="n">
-        <v>0.6436848338182457</v>
+        <v>0.6272709217447263</v>
       </c>
     </row>
     <row r="185">
@@ -3576,16 +3576,16 @@
         <v>184</v>
       </c>
       <c r="B185" t="n">
-        <v>14.2946125968012</v>
+        <v>14.2791429785161</v>
       </c>
       <c r="C185" t="n">
-        <v>9.705753060942818</v>
+        <v>9.861777119804938</v>
       </c>
       <c r="D185" t="n">
-        <v>0.281668402466115</v>
+        <v>0.2791976294392469</v>
       </c>
       <c r="E185" t="n">
-        <v>0.6656515375027671</v>
+        <v>0.6495136035477799</v>
       </c>
     </row>
     <row r="186">
@@ -3593,16 +3593,16 @@
         <v>185</v>
       </c>
       <c r="B186" t="n">
-        <v>12.61212624033147</v>
+        <v>12.60281318164672</v>
       </c>
       <c r="C186" t="n">
-        <v>9.496691109576712</v>
+        <v>9.643130210045841</v>
       </c>
       <c r="D186" t="n">
-        <v>0.3307519396963077</v>
+        <v>0.3292413004153146</v>
       </c>
       <c r="E186" t="n">
-        <v>0.6214762061439425</v>
+        <v>0.6080618287765327</v>
       </c>
     </row>
     <row r="187">
@@ -3610,16 +3610,16 @@
         <v>186</v>
       </c>
       <c r="B187" t="n">
-        <v>12.40679590291047</v>
+        <v>12.41415013972679</v>
       </c>
       <c r="C187" t="n">
-        <v>8.090518246358963</v>
+        <v>8.312958276964771</v>
       </c>
       <c r="D187" t="n">
-        <v>0.4085022369996359</v>
+        <v>0.4023530540995442</v>
       </c>
       <c r="E187" t="n">
-        <v>0.7482161580498785</v>
+        <v>0.7337326384607807</v>
       </c>
     </row>
     <row r="188">
@@ -3627,16 +3627,16 @@
         <v>187</v>
       </c>
       <c r="B188" t="n">
-        <v>13.69944175143387</v>
+        <v>13.64640271465428</v>
       </c>
       <c r="C188" t="n">
-        <v>9.267685987418014</v>
+        <v>9.466977056851272</v>
       </c>
       <c r="D188" t="n">
-        <v>0.3066278416038946</v>
+        <v>0.3065913687520598</v>
       </c>
       <c r="E188" t="n">
-        <v>0.6570781324296624</v>
+        <v>0.6457194507482353</v>
       </c>
     </row>
     <row r="189">
@@ -3644,16 +3644,16 @@
         <v>188</v>
       </c>
       <c r="B189" t="n">
-        <v>12.85460305144401</v>
+        <v>12.80047091525251</v>
       </c>
       <c r="C189" t="n">
-        <v>8.044106665791277</v>
+        <v>8.206836459856001</v>
       </c>
       <c r="D189" t="n">
-        <v>0.4874001334568305</v>
+        <v>0.4871838035840519</v>
       </c>
       <c r="E189" t="n">
-        <v>0.7614048095445504</v>
+        <v>0.7512992762880193</v>
       </c>
     </row>
     <row r="190">
@@ -3661,16 +3661,16 @@
         <v>189</v>
       </c>
       <c r="B190" t="n">
-        <v>13.00429719291534</v>
+        <v>12.9730276327509</v>
       </c>
       <c r="C190" t="n">
-        <v>8.008655313549758</v>
+        <v>8.163854677786203</v>
       </c>
       <c r="D190" t="n">
-        <v>0.355299163218136</v>
+        <v>0.3581471508269483</v>
       </c>
       <c r="E190" t="n">
-        <v>0.7338901288014421</v>
+        <v>0.7253629937942354</v>
       </c>
     </row>
     <row r="191">
@@ -3678,16 +3678,16 @@
         <v>190</v>
       </c>
       <c r="B191" t="n">
-        <v>13.43988530596273</v>
+        <v>13.44845128750876</v>
       </c>
       <c r="C191" t="n">
-        <v>7.861235733031384</v>
+        <v>8.095218044272746</v>
       </c>
       <c r="D191" t="n">
-        <v>0.4123396507438122</v>
+        <v>0.4080595759246852</v>
       </c>
       <c r="E191" t="n">
-        <v>0.7638625633696543</v>
+        <v>0.7483940910129422</v>
       </c>
     </row>
     <row r="192">
@@ -3695,16 +3695,16 @@
         <v>191</v>
       </c>
       <c r="B192" t="n">
-        <v>13.82073560064555</v>
+        <v>13.86139596042192</v>
       </c>
       <c r="C192" t="n">
-        <v>9.284985958745443</v>
+        <v>9.496855507387094</v>
       </c>
       <c r="D192" t="n">
-        <v>0.4098248647024022</v>
+        <v>0.4053628012327221</v>
       </c>
       <c r="E192" t="n">
-        <v>0.7208271887148676</v>
+        <v>0.7076348699518955</v>
       </c>
     </row>
     <row r="193">
@@ -3712,16 +3712,16 @@
         <v>192</v>
       </c>
       <c r="B193" t="n">
-        <v>13.95843340130124</v>
+        <v>13.95814113921128</v>
       </c>
       <c r="C193" t="n">
-        <v>9.871635515554809</v>
+        <v>10.12057851533674</v>
       </c>
       <c r="D193" t="n">
-        <v>0.2115732187235783</v>
+        <v>0.208914075516006</v>
       </c>
       <c r="E193" t="n">
-        <v>0.6225800598734013</v>
+        <v>0.6067064308068658</v>
       </c>
     </row>
     <row r="194">
@@ -3729,16 +3729,16 @@
         <v>193</v>
       </c>
       <c r="B194" t="n">
-        <v>13.69500477812018</v>
+        <v>13.65379292420607</v>
       </c>
       <c r="C194" t="n">
-        <v>9.293987641439569</v>
+        <v>9.451061900397667</v>
       </c>
       <c r="D194" t="n">
-        <v>0.3351039370938695</v>
+        <v>0.3390852939672692</v>
       </c>
       <c r="E194" t="n">
-        <v>0.6850278053605929</v>
+        <v>0.6736245271800643</v>
       </c>
     </row>
     <row r="195">
@@ -3746,16 +3746,16 @@
         <v>194</v>
       </c>
       <c r="B195" t="n">
-        <v>13.48063402223584</v>
+        <v>13.49870520165524</v>
       </c>
       <c r="C195" t="n">
-        <v>9.115861342565916</v>
+        <v>9.310142903607943</v>
       </c>
       <c r="D195" t="n">
-        <v>0.3059346743463197</v>
+        <v>0.3012331420612359</v>
       </c>
       <c r="E195" t="n">
-        <v>0.6845036587386402</v>
+        <v>0.6685968241314364</v>
       </c>
     </row>
     <row r="196">
@@ -3763,16 +3763,16 @@
         <v>195</v>
       </c>
       <c r="B196" t="n">
-        <v>13.54270717504582</v>
+        <v>13.5231568236412</v>
       </c>
       <c r="C196" t="n">
-        <v>8.501492425346985</v>
+        <v>8.618316842247268</v>
       </c>
       <c r="D196" t="n">
-        <v>0.3620369818817391</v>
+        <v>0.3618128247292893</v>
       </c>
       <c r="E196" t="n">
-        <v>0.7332855791439988</v>
+        <v>0.7223877947729332</v>
       </c>
     </row>
     <row r="197">
@@ -3780,16 +3780,16 @@
         <v>196</v>
       </c>
       <c r="B197" t="n">
-        <v>13.93340794601825</v>
+        <v>13.88838080782195</v>
       </c>
       <c r="C197" t="n">
-        <v>9.073831444126444</v>
+        <v>9.245979932665669</v>
       </c>
       <c r="D197" t="n">
-        <v>0.2913769310396696</v>
+        <v>0.29057079536533</v>
       </c>
       <c r="E197" t="n">
-        <v>0.6936984134479659</v>
+        <v>0.6795036322339266</v>
       </c>
     </row>
     <row r="198">
@@ -3797,16 +3797,16 @@
         <v>197</v>
       </c>
       <c r="B198" t="n">
-        <v>12.25147024786888</v>
+        <v>12.23022790697692</v>
       </c>
       <c r="C198" t="n">
-        <v>8.470995193574215</v>
+        <v>8.553077741612814</v>
       </c>
       <c r="D198" t="n">
-        <v>0.4236154281633168</v>
+        <v>0.4210986887185215</v>
       </c>
       <c r="E198" t="n">
-        <v>0.7057284178338123</v>
+        <v>0.6945495798915848</v>
       </c>
     </row>
     <row r="199">
@@ -3814,16 +3814,16 @@
         <v>198</v>
       </c>
       <c r="B199" t="n">
-        <v>13.60783268087188</v>
+        <v>13.60780910461365</v>
       </c>
       <c r="C199" t="n">
-        <v>8.386455610046538</v>
+        <v>8.616900319696176</v>
       </c>
       <c r="D199" t="n">
-        <v>0.3544030861888547</v>
+        <v>0.3494165686514983</v>
       </c>
       <c r="E199" t="n">
-        <v>0.7127565111057097</v>
+        <v>0.6956014393871813</v>
       </c>
     </row>
     <row r="200">
@@ -3831,16 +3831,16 @@
         <v>199</v>
       </c>
       <c r="B200" t="n">
-        <v>12.46396489204305</v>
+        <v>12.4635857934178</v>
       </c>
       <c r="C200" t="n">
-        <v>8.797447541507029</v>
+        <v>8.890119987071024</v>
       </c>
       <c r="D200" t="n">
-        <v>0.3818874127798688</v>
+        <v>0.3789261902304107</v>
       </c>
       <c r="E200" t="n">
-        <v>0.6769216390067621</v>
+        <v>0.6700434949278183</v>
       </c>
     </row>
     <row r="201">
@@ -3848,16 +3848,16 @@
         <v>200</v>
       </c>
       <c r="B201" t="n">
-        <v>13.2037954887624</v>
+        <v>13.18892162987739</v>
       </c>
       <c r="C201" t="n">
-        <v>7.904592915591576</v>
+        <v>8.173075084755839</v>
       </c>
       <c r="D201" t="n">
-        <v>0.3861483281156302</v>
+        <v>0.3789139517656014</v>
       </c>
       <c r="E201" t="n">
-        <v>0.7496449486562262</v>
+        <v>0.7317147835334015</v>
       </c>
     </row>
   </sheetData>
